--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1332,7 +1332,7 @@
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-pressure|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-body-temperature|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-gcs}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-pressure|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-body-temperature|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-gcs|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rhythm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-breath-sounds|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rhythm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-quality}
 </t>
   </si>
   <si>
@@ -1450,7 +1450,7 @@
     <t>Bundle.entry:observationClinical.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-reported-complaint|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-call-source|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-risk-factors}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-reported-complaint|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-call-source|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-risk-factors|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-condition-of-patient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-outcome-release|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-outcome-discharge|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-status-on-arrival|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-status-on-arrival-alive|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-alcohol}
 </t>
   </si>
   <si>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13194" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14335" uniqueCount="678">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1332,7 +1332,7 @@
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-pressure|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-body-temperature|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-gcs|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rhythm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-breath-sounds|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rhythm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-quality}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-pressure|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-body-temperature|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-gcs|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rhythm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-breath-sounds|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rhythm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-quality|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-cyanosis}
 </t>
   </si>
   <si>
@@ -1450,7 +1450,7 @@
     <t>Bundle.entry:observationClinical.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-reported-complaint|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-call-source|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-risk-factors|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-condition-of-patient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-outcome-release|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-outcome-discharge|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-status-on-arrival|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-status-on-arrival-alive|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-alcohol}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-risk-factors|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-condition-of-patient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-outcome-release|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-outcome-discharge|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-status-on-arrival|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-status-on-arrival-alive|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-alcohol}
 </t>
   </si>
   <si>
@@ -1553,7 +1553,7 @@
     <t>Bundle.entry:observationIncident.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-datetime|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-intent|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-transport-vehicular-flag|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-mode-of-transport|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-collision-type|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-patients-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-position-of-patient}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-datetime|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-intent|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-transport-vehicular-flag|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-mode-of-transport|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-collision-type|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-collision-vs-noncollision|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-patients-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-position-of-patient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-how-many-vehicles|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-how-many-patients|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-place-of-occurrence|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-activity-at-incident}
 </t>
   </si>
   <si>
@@ -1979,6 +1979,109 @@
   </si>
   <si>
     <t>Bundle.entry:procedure.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash</t>
+  </si>
+  <si>
+    <t>observationPostCrash</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-traffic-investigator|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-risk-factors|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-safety-accessories|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-vehicle-condition|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-cctv-available}
+</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationPostCrash.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -2310,7 +2413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN369"/>
+  <dimension ref="A1:AN401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2319,9 +2422,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.60546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.05859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -44057,9 +44160,11 @@
         <v>638</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="C369" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C369" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="D369" t="s" s="2">
         <v>78</v>
       </c>
@@ -44068,7 +44173,7 @@
         <v>79</v>
       </c>
       <c r="G369" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H369" t="s" s="2">
         <v>78</v>
@@ -44080,20 +44185,16 @@
         <v>89</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>639</v>
+        <v>146</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>640</v>
+        <v>178</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N369" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="O369" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N369" s="2"/>
+      <c r="O369" s="2"/>
       <c r="P369" t="s" s="2">
         <v>78</v>
       </c>
@@ -44141,30 +44242,3658 @@
         <v>78</v>
       </c>
       <c r="AF369" t="s" s="2">
-        <v>638</v>
+        <v>176</v>
       </c>
       <c r="AG369" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH369" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI369" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ369" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK369" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL369" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM369" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN369" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C370" s="2"/>
+      <c r="D370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E370" s="2"/>
+      <c r="F370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G370" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N370" s="2"/>
+      <c r="O370" s="2"/>
+      <c r="P370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q370" s="2"/>
+      <c r="R370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH370" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL370" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN370" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C371" s="2"/>
+      <c r="D371" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E371" s="2"/>
+      <c r="F371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G371" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O371" s="2"/>
+      <c r="P371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q371" s="2"/>
+      <c r="R371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH371" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ371" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL371" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN371" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C372" s="2"/>
+      <c r="D372" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E372" s="2"/>
+      <c r="F372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G372" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q372" s="2"/>
+      <c r="R372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF372" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH372" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ372" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL372" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN372" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C373" s="2"/>
+      <c r="D373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E373" s="2"/>
+      <c r="F373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G373" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N373" s="2"/>
+      <c r="O373" s="2"/>
+      <c r="P373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q373" s="2"/>
+      <c r="R373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF373" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH373" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ373" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK369" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL369" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM369" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN369" t="s" s="2">
+      <c r="AK373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN373" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C374" s="2"/>
+      <c r="D374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E374" s="2"/>
+      <c r="F374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G374" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N374" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O374" s="2"/>
+      <c r="P374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q374" s="2"/>
+      <c r="R374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH374" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ374" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN374" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C375" s="2"/>
+      <c r="D375" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="E375" s="2"/>
+      <c r="F375" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G375" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M375" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N375" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O375" s="2"/>
+      <c r="P375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q375" s="2"/>
+      <c r="R375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF375" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH375" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK375" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL375" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AM375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN375" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C376" s="2"/>
+      <c r="D376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E376" s="2"/>
+      <c r="F376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G376" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N376" s="2"/>
+      <c r="O376" s="2"/>
+      <c r="P376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q376" s="2"/>
+      <c r="R376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AG376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH376" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI376" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AJ376" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN376" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B377" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C377" s="2"/>
+      <c r="D377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E377" s="2"/>
+      <c r="F377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G377" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N377" s="2"/>
+      <c r="O377" s="2"/>
+      <c r="P377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q377" s="2"/>
+      <c r="R377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF377" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH377" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL377" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN377" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B378" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C378" s="2"/>
+      <c r="D378" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E378" s="2"/>
+      <c r="F378" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G378" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K378" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L378" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N378" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O378" s="2"/>
+      <c r="P378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q378" s="2"/>
+      <c r="R378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF378" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG378" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH378" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ378" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL378" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN378" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B379" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C379" s="2"/>
+      <c r="D379" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E379" s="2"/>
+      <c r="F379" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G379" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I379" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J379" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K379" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L379" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q379" s="2"/>
+      <c r="R379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF379" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG379" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH379" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ379" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL379" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN379" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C380" s="2"/>
+      <c r="D380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E380" s="2"/>
+      <c r="F380" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G380" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J380" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K380" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L380" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N380" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O380" s="2"/>
+      <c r="P380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q380" s="2"/>
+      <c r="R380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X380" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y380" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z380" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF380" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG380" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH380" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ380" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN380" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B381" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C381" s="2"/>
+      <c r="D381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E381" s="2"/>
+      <c r="F381" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G381" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J381" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K381" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L381" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M381" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N381" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O381" s="2"/>
+      <c r="P381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q381" s="2"/>
+      <c r="R381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF381" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG381" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH381" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ381" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN381" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B382" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C382" s="2"/>
+      <c r="D382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E382" s="2"/>
+      <c r="F382" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G382" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J382" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K382" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L382" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M382" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N382" s="2"/>
+      <c r="O382" s="2"/>
+      <c r="P382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q382" s="2"/>
+      <c r="R382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF382" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG382" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH382" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI382" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AJ382" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN382" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B383" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C383" s="2"/>
+      <c r="D383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E383" s="2"/>
+      <c r="F383" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G383" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K383" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L383" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M383" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N383" s="2"/>
+      <c r="O383" s="2"/>
+      <c r="P383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q383" s="2"/>
+      <c r="R383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF383" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG383" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH383" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL383" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN383" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B384" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C384" s="2"/>
+      <c r="D384" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E384" s="2"/>
+      <c r="F384" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G384" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K384" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L384" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M384" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N384" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O384" s="2"/>
+      <c r="P384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q384" s="2"/>
+      <c r="R384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF384" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG384" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH384" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ384" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL384" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN384" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B385" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C385" s="2"/>
+      <c r="D385" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E385" s="2"/>
+      <c r="F385" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G385" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I385" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J385" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K385" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L385" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O385" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q385" s="2"/>
+      <c r="R385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF385" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG385" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH385" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ385" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL385" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN385" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B386" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C386" s="2"/>
+      <c r="D386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E386" s="2"/>
+      <c r="F386" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G386" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J386" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K386" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L386" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M386" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N386" s="2"/>
+      <c r="O386" s="2"/>
+      <c r="P386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q386" s="2"/>
+      <c r="R386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X386" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y386" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z386" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AA386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF386" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG386" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH386" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ386" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM386" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN386" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B387" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C387" s="2"/>
+      <c r="D387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E387" s="2"/>
+      <c r="F387" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G387" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J387" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K387" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L387" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M387" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N387" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O387" s="2"/>
+      <c r="P387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q387" s="2"/>
+      <c r="R387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF387" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG387" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH387" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ387" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM387" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN387" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B388" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C388" s="2"/>
+      <c r="D388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E388" s="2"/>
+      <c r="F388" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G388" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J388" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K388" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L388" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M388" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N388" s="2"/>
+      <c r="O388" s="2"/>
+      <c r="P388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q388" s="2"/>
+      <c r="R388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF388" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG388" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH388" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ388" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN388" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B389" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C389" s="2"/>
+      <c r="D389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E389" s="2"/>
+      <c r="F389" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G389" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J389" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K389" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L389" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N389" s="2"/>
+      <c r="O389" s="2"/>
+      <c r="P389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q389" s="2"/>
+      <c r="R389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF389" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG389" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH389" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ389" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN389" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B390" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C390" s="2"/>
+      <c r="D390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E390" s="2"/>
+      <c r="F390" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G390" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J390" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K390" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L390" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M390" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N390" s="2"/>
+      <c r="O390" s="2"/>
+      <c r="P390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q390" s="2"/>
+      <c r="R390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF390" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG390" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH390" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ390" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN390" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B391" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C391" s="2"/>
+      <c r="D391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E391" s="2"/>
+      <c r="F391" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G391" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J391" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K391" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L391" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M391" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N391" s="2"/>
+      <c r="O391" s="2"/>
+      <c r="P391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q391" s="2"/>
+      <c r="R391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF391" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG391" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH391" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ391" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN391" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B392" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C392" s="2"/>
+      <c r="D392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E392" s="2"/>
+      <c r="F392" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G392" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J392" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K392" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L392" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M392" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N392" s="2"/>
+      <c r="O392" s="2"/>
+      <c r="P392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q392" s="2"/>
+      <c r="R392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF392" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG392" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH392" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI392" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AJ392" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN392" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B393" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C393" s="2"/>
+      <c r="D393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E393" s="2"/>
+      <c r="F393" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G393" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K393" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L393" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M393" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N393" s="2"/>
+      <c r="O393" s="2"/>
+      <c r="P393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q393" s="2"/>
+      <c r="R393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF393" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG393" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH393" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL393" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN393" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B394" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C394" s="2"/>
+      <c r="D394" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E394" s="2"/>
+      <c r="F394" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G394" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K394" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L394" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M394" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N394" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O394" s="2"/>
+      <c r="P394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q394" s="2"/>
+      <c r="R394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF394" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG394" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH394" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ394" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL394" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN394" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B395" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C395" s="2"/>
+      <c r="D395" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E395" s="2"/>
+      <c r="F395" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G395" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I395" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J395" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K395" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L395" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M395" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N395" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O395" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q395" s="2"/>
+      <c r="R395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF395" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG395" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH395" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ395" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL395" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN395" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B396" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C396" s="2"/>
+      <c r="D396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E396" s="2"/>
+      <c r="F396" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G396" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J396" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K396" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L396" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M396" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N396" s="2"/>
+      <c r="O396" s="2"/>
+      <c r="P396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q396" s="2"/>
+      <c r="R396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF396" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG396" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH396" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ396" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM396" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN396" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B397" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C397" s="2"/>
+      <c r="D397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E397" s="2"/>
+      <c r="F397" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G397" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J397" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K397" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L397" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M397" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N397" s="2"/>
+      <c r="O397" s="2"/>
+      <c r="P397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q397" s="2"/>
+      <c r="R397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF397" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG397" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH397" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ397" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN397" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B398" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C398" s="2"/>
+      <c r="D398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E398" s="2"/>
+      <c r="F398" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G398" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J398" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K398" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L398" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M398" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N398" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O398" s="2"/>
+      <c r="P398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q398" s="2"/>
+      <c r="R398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF398" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG398" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH398" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ398" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN398" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B399" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C399" s="2"/>
+      <c r="D399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E399" s="2"/>
+      <c r="F399" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G399" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J399" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K399" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L399" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M399" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N399" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O399" s="2"/>
+      <c r="P399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q399" s="2"/>
+      <c r="R399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF399" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG399" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH399" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ399" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN399" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B400" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C400" s="2"/>
+      <c r="D400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E400" s="2"/>
+      <c r="F400" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G400" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J400" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K400" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L400" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N400" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O400" s="2"/>
+      <c r="P400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q400" s="2"/>
+      <c r="R400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF400" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG400" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH400" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN400" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B401" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="C401" s="2"/>
+      <c r="D401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E401" s="2"/>
+      <c r="F401" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G401" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J401" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K401" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="L401" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M401" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="N401" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="O401" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="P401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q401" s="2"/>
+      <c r="R401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF401" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AG401" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH401" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ401" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN401" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17758" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18899" uniqueCount="818">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Bundle for Facility ONEISS submission containing patient, encounter, conditions, observations, and supporting documents.</t>
+    <t>Document Bundle for Facility ONEISS submission. The first entry MUST be a Composition that organizes and references the other resources in the bundle (Patient, Encounter, Condition, Observations, DocumentReference, Procedure, ServiceRequest).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -404,7 +404,7 @@
     <t>It's possible to use a bundle for other purposes (e.g. a document can be accepted as a transaction). This is primarily defined so that there can be specific rules for some of the bundle types.</t>
   </si>
   <si>
-    <t>collection</t>
+    <t>document</t>
   </si>
   <si>
     <t>required</t>
@@ -573,7 +573,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -582,7 +582,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource}
+    <t xml:space="preserve">value:resource}
 </t>
   </si>
   <si>
@@ -855,6 +855,124 @@
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
   </si>
   <si>
+    <t>Bundle.entry:composition</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composition {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-composition-oneiss}
+</t>
+  </si>
+  <si>
+    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
+  </si>
+  <si>
+    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
+  </si>
+  <si>
+    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
+  </si>
+  <si>
+    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:composition.response.outcome</t>
+  </si>
+  <si>
     <t>Bundle.entry:patient</t>
   </si>
   <si>
@@ -1304,35 +1422,35 @@
     <t>Bundle.entry:conditionFinal.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:observationVitals</t>
-  </si>
-  <si>
-    <t>observationVitals</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.resource</t>
+    <t>Bundle.entry:observationInjuries</t>
+  </si>
+  <si>
+    <t>observationInjuries</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.resource</t>
   </si>
   <si>
     <t>Vital Signs
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-pressure|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-body-temperature|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-gcs|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rhythm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-breath-sounds|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rhythm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-quality|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-cyanosis}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-multiple-injuries|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-abrasion|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-avulsion|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-burn-1st|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-burn-2nd|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-burn-3rd|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-burn-4th|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-concussion|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-contusion|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-fracture-closed|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-fracture-open|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-open-wound|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-traumatic-amputation|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-injury}
 </t>
   </si>
   <si>
@@ -1351,79 +1469,79 @@
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
-    <t>Bundle.entry:observationVitals.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationVitals.response.outcome</t>
+    <t>Bundle.entry:observationInjuries.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationInjuries.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:observationExtentOfInjury</t>
@@ -1656,7 +1774,7 @@
     <t>Bundle.entry:observationIncident.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-datetime|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-intent|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-transport-vehicular-flag|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-mode-of-transport|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-collision-type|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-collision-vs-noncollision|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-patients-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-position-of-patient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-how-many-vehicles|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-how-many-patients|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-place-of-occurrence|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-activity-at-incident}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-datetime|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-intent|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-transport-vehicular-flag|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-mode-of-transport|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-collision-vs-noncollision|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-patients-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-position-of-patient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-how-many-vehicles|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-how-many-patients|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-place-of-occurrence|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-activity-at-incident|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-safety-accessories|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-triage-priority|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-urgency}
 </t>
   </si>
   <si>
@@ -1733,6 +1851,109 @@
   </si>
   <si>
     <t>Bundle.entry:observationIncident.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause</t>
+  </si>
+  <si>
+    <t>observationExternalCause</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-bites-stings|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-burns|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-chemical|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-sharp-object|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-drowning|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-forces-of-nature|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-fall|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-firecracker|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-gunshot|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-hanging-strangulation|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-mauling-assault|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-sexual-assault|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-ec-other}
+</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:observationExternalCause.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:observationTransferredFromFacility</t>
@@ -1944,9 +2165,6 @@
     <t>Bundle.entry:document</t>
   </si>
   <si>
-    <t>document</t>
-  </si>
-  <si>
     <t>Bundle.entry:document.id</t>
   </si>
   <si>
@@ -2288,109 +2506,6 @@
   </si>
   <si>
     <t>Bundle.entry:procedure.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash</t>
-  </si>
-  <si>
-    <t>observationPostCrash</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-traffic-investigator|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-risk-factors|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-safety-accessories|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-vehicle-condition|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-cctv-available}
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationPostCrash.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -2722,7 +2837,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN497"/>
+  <dimension ref="A1:AN529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8907,7 +9022,7 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8926,15 +9041,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -12628,7 +12745,7 @@
         <v>318</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12636,7 +12753,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>197</v>
@@ -12748,7 +12865,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>201</v>
@@ -12860,7 +12977,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>202</v>
@@ -12974,7 +13091,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>203</v>
@@ -13090,7 +13207,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>204</v>
@@ -13204,7 +13321,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>210</v>
@@ -13318,7 +13435,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>215</v>
@@ -13430,7 +13547,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>219</v>
@@ -13542,7 +13659,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>220</v>
@@ -13656,7 +13773,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>221</v>
@@ -13772,7 +13889,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>222</v>
@@ -13884,7 +14001,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>227</v>
@@ -13998,7 +14115,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>231</v>
@@ -14110,7 +14227,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>234</v>
@@ -14222,7 +14339,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>236</v>
@@ -14334,7 +14451,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>239</v>
@@ -14446,7 +14563,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>242</v>
@@ -14558,7 +14675,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>246</v>
@@ -14670,7 +14787,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>247</v>
@@ -14784,7 +14901,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>248</v>
@@ -14900,7 +15017,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>249</v>
@@ -15012,7 +15129,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>252</v>
@@ -15124,7 +15241,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>255</v>
@@ -15238,7 +15355,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>259</v>
@@ -15352,7 +15469,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>263</v>
@@ -15466,20 +15583,20 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>88</v>
@@ -15580,7 +15697,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>183</v>
@@ -15692,7 +15809,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>184</v>
@@ -15806,7 +15923,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>185</v>
@@ -15922,7 +16039,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>186</v>
@@ -16034,7 +16151,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>189</v>
@@ -16148,14 +16265,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16174,13 +16291,13 @@
         <v>78</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16246,10 +16363,10 @@
         <v>78</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>78</v>
@@ -16260,7 +16377,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>197</v>
@@ -16372,7 +16489,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>201</v>
@@ -16484,7 +16601,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>202</v>
@@ -16598,7 +16715,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>203</v>
@@ -16714,7 +16831,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>204</v>
@@ -16828,7 +16945,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>210</v>
@@ -16942,7 +17059,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>215</v>
@@ -17054,7 +17171,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>219</v>
@@ -17166,7 +17283,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>220</v>
@@ -17280,7 +17397,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>221</v>
@@ -17396,7 +17513,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>222</v>
@@ -17508,7 +17625,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>227</v>
@@ -17622,7 +17739,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>231</v>
@@ -17734,7 +17851,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>234</v>
@@ -17846,7 +17963,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>236</v>
@@ -17958,7 +18075,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>239</v>
@@ -18070,7 +18187,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>242</v>
@@ -18182,7 +18299,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>246</v>
@@ -18294,7 +18411,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>247</v>
@@ -18408,7 +18525,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>248</v>
@@ -18524,7 +18641,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>249</v>
@@ -18636,7 +18753,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>252</v>
@@ -18748,7 +18865,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>255</v>
@@ -18862,7 +18979,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>259</v>
@@ -18976,7 +19093,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>263</v>
@@ -19090,13 +19207,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>78</v>
@@ -19204,7 +19321,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>183</v>
@@ -19316,7 +19433,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>184</v>
@@ -19430,7 +19547,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>185</v>
@@ -19546,7 +19663,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>186</v>
@@ -19658,7 +19775,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>189</v>
@@ -19772,7 +19889,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>193</v>
@@ -19798,13 +19915,13 @@
         <v>78</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19870,10 +19987,10 @@
         <v>78</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>78</v>
@@ -19884,7 +20001,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>197</v>
@@ -19996,7 +20113,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>201</v>
@@ -20108,7 +20225,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>202</v>
@@ -20222,7 +20339,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>203</v>
@@ -20338,7 +20455,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>204</v>
@@ -20452,7 +20569,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>210</v>
@@ -20566,7 +20683,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>215</v>
@@ -20678,7 +20795,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>219</v>
@@ -20790,7 +20907,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>220</v>
@@ -20904,7 +21021,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>221</v>
@@ -21020,7 +21137,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>222</v>
@@ -21132,7 +21249,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>227</v>
@@ -21246,7 +21363,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>231</v>
@@ -21358,7 +21475,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>234</v>
@@ -21470,7 +21587,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>236</v>
@@ -21582,7 +21699,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>239</v>
@@ -21694,7 +21811,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>242</v>
@@ -21806,7 +21923,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>246</v>
@@ -21918,7 +22035,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>247</v>
@@ -22032,7 +22149,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>248</v>
@@ -22148,7 +22265,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>249</v>
@@ -22260,7 +22377,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>252</v>
@@ -22372,7 +22489,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>255</v>
@@ -22486,7 +22603,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>259</v>
@@ -22600,7 +22717,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>263</v>
@@ -22714,13 +22831,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>78</v>
@@ -22730,7 +22847,7 @@
         <v>79</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>78</v>
@@ -22828,7 +22945,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>183</v>
@@ -22940,7 +23057,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>184</v>
@@ -23054,7 +23171,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>185</v>
@@ -23170,7 +23287,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>186</v>
@@ -23282,7 +23399,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>189</v>
@@ -23396,14 +23513,14 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
@@ -23422,17 +23539,15 @@
         <v>78</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
         <v>78</v>
@@ -23496,10 +23611,10 @@
         <v>78</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>78</v>
@@ -23510,7 +23625,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>197</v>
@@ -23622,7 +23737,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>201</v>
@@ -23734,7 +23849,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>202</v>
@@ -23848,7 +23963,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>203</v>
@@ -23964,7 +24079,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>204</v>
@@ -24078,7 +24193,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>210</v>
@@ -24192,7 +24307,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>215</v>
@@ -24304,7 +24419,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>219</v>
@@ -24416,7 +24531,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>220</v>
@@ -24530,7 +24645,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>221</v>
@@ -24646,7 +24761,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>222</v>
@@ -24758,7 +24873,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>227</v>
@@ -24872,7 +24987,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>231</v>
@@ -24984,7 +25099,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>234</v>
@@ -25096,7 +25211,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>236</v>
@@ -25208,7 +25323,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>239</v>
@@ -25320,7 +25435,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>242</v>
@@ -25432,7 +25547,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>246</v>
@@ -25544,7 +25659,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>247</v>
@@ -25658,7 +25773,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>248</v>
@@ -25774,7 +25889,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>249</v>
@@ -25886,7 +26001,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>252</v>
@@ -25998,7 +26113,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>255</v>
@@ -26112,7 +26227,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>259</v>
@@ -26226,7 +26341,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>263</v>
@@ -26340,13 +26455,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>78</v>
@@ -26356,7 +26471,7 @@
         <v>79</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>78</v>
@@ -26454,7 +26569,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>183</v>
@@ -26566,7 +26681,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>184</v>
@@ -26680,7 +26795,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>185</v>
@@ -26796,7 +26911,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>186</v>
@@ -26822,7 +26937,7 @@
         <v>89</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L213" t="s" s="2">
         <v>187</v>
@@ -26908,7 +27023,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>189</v>
@@ -27022,14 +27137,14 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -27051,13 +27166,13 @@
         <v>463</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -27122,10 +27237,10 @@
         <v>78</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>78</v>
@@ -27136,7 +27251,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>197</v>
@@ -27248,7 +27363,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>201</v>
@@ -27360,7 +27475,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>202</v>
@@ -27474,7 +27589,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>203</v>
@@ -27590,7 +27705,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>204</v>
@@ -27704,7 +27819,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>210</v>
@@ -27818,7 +27933,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>215</v>
@@ -27930,7 +28045,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>219</v>
@@ -28042,7 +28157,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>220</v>
@@ -28156,7 +28271,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>221</v>
@@ -28272,7 +28387,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>222</v>
@@ -28384,7 +28499,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>227</v>
@@ -28498,7 +28613,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>231</v>
@@ -28610,7 +28725,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>234</v>
@@ -28722,7 +28837,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>236</v>
@@ -28834,7 +28949,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>239</v>
@@ -28946,7 +29061,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>242</v>
@@ -29058,7 +29173,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>246</v>
@@ -29170,7 +29285,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>247</v>
@@ -29284,7 +29399,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>248</v>
@@ -29400,7 +29515,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>249</v>
@@ -29512,7 +29627,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>252</v>
@@ -29624,7 +29739,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>255</v>
@@ -29738,7 +29853,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>259</v>
@@ -29852,7 +29967,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>263</v>
@@ -29966,13 +30081,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>78</v>
@@ -29982,7 +30097,7 @@
         <v>79</v>
       </c>
       <c r="G241" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>78</v>
@@ -30080,7 +30195,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>183</v>
@@ -30192,7 +30307,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>184</v>
@@ -30306,7 +30421,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>185</v>
@@ -30422,7 +30537,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>186</v>
@@ -30448,7 +30563,7 @@
         <v>89</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L245" t="s" s="2">
         <v>187</v>
@@ -30534,7 +30649,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>189</v>
@@ -30648,14 +30763,14 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -30674,16 +30789,16 @@
         <v>78</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
@@ -30748,10 +30863,10 @@
         <v>78</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>78</v>
@@ -30762,7 +30877,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>197</v>
@@ -30874,7 +30989,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>201</v>
@@ -30986,7 +31101,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>202</v>
@@ -31100,7 +31215,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>203</v>
@@ -31216,7 +31331,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>204</v>
@@ -31330,7 +31445,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>210</v>
@@ -31444,7 +31559,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>215</v>
@@ -31556,7 +31671,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>219</v>
@@ -31668,7 +31783,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>220</v>
@@ -31782,7 +31897,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>221</v>
@@ -31898,7 +32013,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>222</v>
@@ -32010,7 +32125,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>227</v>
@@ -32124,7 +32239,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>231</v>
@@ -32236,7 +32351,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>234</v>
@@ -32348,7 +32463,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>236</v>
@@ -32460,7 +32575,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>239</v>
@@ -32572,7 +32687,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>242</v>
@@ -32684,7 +32799,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>246</v>
@@ -32796,7 +32911,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>247</v>
@@ -32910,7 +33025,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>248</v>
@@ -33026,7 +33141,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>249</v>
@@ -33138,7 +33253,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>252</v>
@@ -33250,7 +33365,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>255</v>
@@ -33364,7 +33479,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>259</v>
@@ -33478,7 +33593,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>263</v>
@@ -33592,13 +33707,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>78</v>
@@ -33706,7 +33821,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>183</v>
@@ -33818,7 +33933,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>184</v>
@@ -33932,7 +34047,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>185</v>
@@ -34048,7 +34163,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>186</v>
@@ -34074,7 +34189,7 @@
         <v>89</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L277" t="s" s="2">
         <v>187</v>
@@ -34160,7 +34275,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>189</v>
@@ -34274,14 +34389,14 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
@@ -34300,16 +34415,16 @@
         <v>78</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="O279" s="2"/>
       <c r="P279" t="s" s="2">
@@ -34374,10 +34489,10 @@
         <v>78</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>78</v>
@@ -34388,7 +34503,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>197</v>
@@ -34500,7 +34615,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>201</v>
@@ -34612,7 +34727,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>202</v>
@@ -34726,7 +34841,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>203</v>
@@ -34842,7 +34957,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>204</v>
@@ -34956,7 +35071,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>210</v>
@@ -35070,7 +35185,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>215</v>
@@ -35182,7 +35297,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>219</v>
@@ -35294,7 +35409,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>220</v>
@@ -35408,7 +35523,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>221</v>
@@ -35524,7 +35639,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>222</v>
@@ -35636,7 +35751,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>227</v>
@@ -35750,7 +35865,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>231</v>
@@ -35862,7 +35977,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>234</v>
@@ -35974,7 +36089,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>236</v>
@@ -36086,7 +36201,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>239</v>
@@ -36198,7 +36313,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>242</v>
@@ -36310,7 +36425,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>246</v>
@@ -36422,7 +36537,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>247</v>
@@ -36536,7 +36651,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>248</v>
@@ -36652,7 +36767,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>249</v>
@@ -36764,7 +36879,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>252</v>
@@ -36876,7 +36991,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>255</v>
@@ -36990,7 +37105,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>259</v>
@@ -37104,7 +37219,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>263</v>
@@ -37218,13 +37333,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D305" t="s" s="2">
         <v>78</v>
@@ -37234,7 +37349,7 @@
         <v>79</v>
       </c>
       <c r="G305" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H305" t="s" s="2">
         <v>78</v>
@@ -37332,7 +37447,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>183</v>
@@ -37444,7 +37559,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>184</v>
@@ -37558,7 +37673,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>185</v>
@@ -37674,7 +37789,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>186</v>
@@ -37700,7 +37815,7 @@
         <v>89</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L309" t="s" s="2">
         <v>187</v>
@@ -37786,7 +37901,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>189</v>
@@ -37900,14 +38015,14 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
@@ -37926,16 +38041,16 @@
         <v>78</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
@@ -38000,10 +38115,10 @@
         <v>78</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>78</v>
@@ -38014,7 +38129,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>197</v>
@@ -38126,7 +38241,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>201</v>
@@ -38238,7 +38353,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>202</v>
@@ -38352,7 +38467,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>203</v>
@@ -38468,7 +38583,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>204</v>
@@ -38582,7 +38697,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>210</v>
@@ -38696,7 +38811,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>215</v>
@@ -38808,7 +38923,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>219</v>
@@ -38920,7 +39035,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>220</v>
@@ -39034,7 +39149,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>221</v>
@@ -39150,7 +39265,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>222</v>
@@ -39262,7 +39377,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>227</v>
@@ -39376,7 +39491,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>231</v>
@@ -39488,7 +39603,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>234</v>
@@ -39600,7 +39715,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>236</v>
@@ -39712,7 +39827,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>239</v>
@@ -39824,7 +39939,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>242</v>
@@ -39936,7 +40051,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>246</v>
@@ -40048,7 +40163,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>247</v>
@@ -40162,7 +40277,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>248</v>
@@ -40278,7 +40393,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>249</v>
@@ -40390,7 +40505,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>252</v>
@@ -40502,7 +40617,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>255</v>
@@ -40616,7 +40731,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>259</v>
@@ -40730,7 +40845,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>263</v>
@@ -40844,13 +40959,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D337" t="s" s="2">
         <v>78</v>
@@ -40860,7 +40975,7 @@
         <v>79</v>
       </c>
       <c r="G337" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H337" t="s" s="2">
         <v>78</v>
@@ -40958,7 +41073,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>183</v>
@@ -41070,7 +41185,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>184</v>
@@ -41184,7 +41299,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>185</v>
@@ -41300,7 +41415,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>186</v>
@@ -41326,7 +41441,7 @@
         <v>89</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L341" t="s" s="2">
         <v>187</v>
@@ -41412,7 +41527,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>189</v>
@@ -41526,14 +41641,14 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
@@ -41552,16 +41667,16 @@
         <v>78</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
@@ -41626,10 +41741,10 @@
         <v>78</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="AL343" t="s" s="2">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>78</v>
@@ -41640,7 +41755,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>197</v>
@@ -41752,7 +41867,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>201</v>
@@ -41864,7 +41979,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>202</v>
@@ -41978,7 +42093,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>203</v>
@@ -42094,7 +42209,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>204</v>
@@ -42208,7 +42323,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>210</v>
@@ -42322,7 +42437,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>215</v>
@@ -42434,7 +42549,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>219</v>
@@ -42546,7 +42661,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>220</v>
@@ -42660,7 +42775,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>221</v>
@@ -42776,7 +42891,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>222</v>
@@ -42888,7 +43003,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>227</v>
@@ -43002,7 +43117,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>231</v>
@@ -43114,7 +43229,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>234</v>
@@ -43226,7 +43341,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>236</v>
@@ -43338,7 +43453,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>239</v>
@@ -43450,7 +43565,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>242</v>
@@ -43562,7 +43677,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>246</v>
@@ -43674,7 +43789,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>247</v>
@@ -43788,7 +43903,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>248</v>
@@ -43904,7 +44019,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>249</v>
@@ -44016,7 +44131,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>252</v>
@@ -44128,7 +44243,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>255</v>
@@ -44242,7 +44357,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>259</v>
@@ -44356,7 +44471,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>263</v>
@@ -44470,13 +44585,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>78</v>
@@ -44486,7 +44601,7 @@
         <v>79</v>
       </c>
       <c r="G369" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H369" t="s" s="2">
         <v>78</v>
@@ -44584,7 +44699,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>183</v>
@@ -44696,7 +44811,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>184</v>
@@ -44810,7 +44925,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>185</v>
@@ -44926,7 +45041,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>186</v>
@@ -44952,7 +45067,7 @@
         <v>89</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L373" t="s" s="2">
         <v>187</v>
@@ -45038,7 +45153,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>189</v>
@@ -45152,14 +45267,14 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
@@ -45178,16 +45293,16 @@
         <v>78</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>634</v>
+        <v>464</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>635</v>
+        <v>465</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>636</v>
+        <v>466</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
@@ -45252,13 +45367,13 @@
         <v>78</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AL375" t="s" s="2">
-        <v>637</v>
+        <v>468</v>
       </c>
       <c r="AM375" t="s" s="2">
-        <v>638</v>
+        <v>78</v>
       </c>
       <c r="AN375" t="s" s="2">
         <v>78</v>
@@ -48112,7 +48227,7 @@
         <v>79</v>
       </c>
       <c r="G401" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H401" t="s" s="2">
         <v>78</v>
@@ -48578,7 +48693,7 @@
         <v>89</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L405" t="s" s="2">
         <v>187</v>
@@ -48785,7 +48900,7 @@
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
-        <v>672</v>
+        <v>462</v>
       </c>
       <c r="E407" s="2"/>
       <c r="F407" t="s" s="2">
@@ -48804,15 +48919,17 @@
         <v>78</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>674</v>
+        <v>464</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N407" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N407" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O407" s="2"/>
       <c r="P407" t="s" s="2">
         <v>78</v>
@@ -48876,10 +48993,10 @@
         <v>78</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>676</v>
+        <v>467</v>
       </c>
       <c r="AL407" t="s" s="2">
-        <v>677</v>
+        <v>468</v>
       </c>
       <c r="AM407" t="s" s="2">
         <v>78</v>
@@ -48890,7 +49007,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>197</v>
@@ -49002,7 +49119,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>201</v>
@@ -49114,7 +49231,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>202</v>
@@ -49228,7 +49345,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>203</v>
@@ -49344,7 +49461,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>204</v>
@@ -49458,7 +49575,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>210</v>
@@ -49572,7 +49689,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>215</v>
@@ -49684,7 +49801,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>219</v>
@@ -49796,7 +49913,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>220</v>
@@ -49910,7 +50027,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>221</v>
@@ -50026,7 +50143,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>222</v>
@@ -50138,7 +50255,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>227</v>
@@ -50252,7 +50369,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>231</v>
@@ -50364,7 +50481,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>234</v>
@@ -50476,7 +50593,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>236</v>
@@ -50588,7 +50705,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>239</v>
@@ -50700,7 +50817,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>242</v>
@@ -50812,7 +50929,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>246</v>
@@ -50924,7 +51041,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>247</v>
@@ -51038,7 +51155,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>248</v>
@@ -51154,7 +51271,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>249</v>
@@ -51266,7 +51383,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>252</v>
@@ -51378,7 +51495,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>255</v>
@@ -51492,7 +51609,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>259</v>
@@ -51606,7 +51723,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>263</v>
@@ -51720,13 +51837,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>704</v>
+        <v>127</v>
       </c>
       <c r="D433" t="s" s="2">
         <v>78</v>
@@ -51834,7 +51951,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>183</v>
@@ -51946,7 +52063,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>184</v>
@@ -52060,7 +52177,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>185</v>
@@ -52176,7 +52293,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>186</v>
@@ -52202,7 +52319,7 @@
         <v>89</v>
       </c>
       <c r="K437" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L437" t="s" s="2">
         <v>187</v>
@@ -52288,7 +52405,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>189</v>
@@ -52402,7 +52519,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>193</v>
@@ -52428,15 +52545,17 @@
         <v>78</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="N439" s="2"/>
+        <v>707</v>
+      </c>
+      <c r="N439" t="s" s="2">
+        <v>708</v>
+      </c>
       <c r="O439" s="2"/>
       <c r="P439" t="s" s="2">
         <v>78</v>
@@ -52503,10 +52622,10 @@
         <v>78</v>
       </c>
       <c r="AL439" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="AM439" t="s" s="2">
-        <v>78</v>
+        <v>710</v>
       </c>
       <c r="AN439" t="s" s="2">
         <v>78</v>
@@ -52514,7 +52633,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>197</v>
@@ -52626,7 +52745,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>201</v>
@@ -52738,7 +52857,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>202</v>
@@ -52852,7 +52971,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>203</v>
@@ -52968,7 +53087,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>204</v>
@@ -53082,7 +53201,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>210</v>
@@ -53196,7 +53315,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>215</v>
@@ -53308,7 +53427,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>219</v>
@@ -53420,7 +53539,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>220</v>
@@ -53534,7 +53653,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>221</v>
@@ -53650,7 +53769,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>222</v>
@@ -53762,7 +53881,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>227</v>
@@ -53876,7 +53995,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>231</v>
@@ -53988,7 +54107,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>234</v>
@@ -54100,7 +54219,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>236</v>
@@ -54212,7 +54331,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>239</v>
@@ -54324,7 +54443,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>242</v>
@@ -54436,7 +54555,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>246</v>
@@ -54548,7 +54667,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>247</v>
@@ -54662,7 +54781,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>248</v>
@@ -54778,7 +54897,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>249</v>
@@ -54890,7 +55009,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>252</v>
@@ -55002,7 +55121,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>255</v>
@@ -55116,7 +55235,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>259</v>
@@ -55230,7 +55349,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>263</v>
@@ -55344,13 +55463,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D465" t="s" s="2">
         <v>78</v>
@@ -55458,7 +55577,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>183</v>
@@ -55570,7 +55689,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>184</v>
@@ -55684,7 +55803,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>185</v>
@@ -55800,7 +55919,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>186</v>
@@ -55826,7 +55945,7 @@
         <v>89</v>
       </c>
       <c r="K469" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L469" t="s" s="2">
         <v>187</v>
@@ -55912,7 +56031,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>189</v>
@@ -56026,14 +56145,14 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" t="s" s="2">
-        <v>423</v>
+        <v>744</v>
       </c>
       <c r="E471" s="2"/>
       <c r="F471" t="s" s="2">
@@ -56052,17 +56171,15 @@
         <v>78</v>
       </c>
       <c r="K471" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>425</v>
+        <v>746</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N471" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="N471" s="2"/>
       <c r="O471" s="2"/>
       <c r="P471" t="s" s="2">
         <v>78</v>
@@ -56126,10 +56243,10 @@
         <v>78</v>
       </c>
       <c r="AK471" t="s" s="2">
-        <v>428</v>
+        <v>748</v>
       </c>
       <c r="AL471" t="s" s="2">
-        <v>429</v>
+        <v>749</v>
       </c>
       <c r="AM471" t="s" s="2">
         <v>78</v>
@@ -56140,7 +56257,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>197</v>
@@ -56252,7 +56369,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>201</v>
@@ -56364,7 +56481,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>202</v>
@@ -56478,7 +56595,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>203</v>
@@ -56594,7 +56711,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>204</v>
@@ -56708,7 +56825,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>210</v>
@@ -56822,7 +56939,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>215</v>
@@ -56934,7 +57051,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>219</v>
@@ -57046,7 +57163,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>220</v>
@@ -57160,7 +57277,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>221</v>
@@ -57276,7 +57393,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>222</v>
@@ -57388,7 +57505,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>227</v>
@@ -57502,7 +57619,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>231</v>
@@ -57614,7 +57731,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>234</v>
@@ -57726,7 +57843,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>236</v>
@@ -57838,7 +57955,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>239</v>
@@ -57950,7 +58067,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>242</v>
@@ -58062,7 +58179,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>246</v>
@@ -58174,7 +58291,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>247</v>
@@ -58288,7 +58405,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>248</v>
@@ -58404,7 +58521,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>249</v>
@@ -58516,7 +58633,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>252</v>
@@ -58628,7 +58745,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>255</v>
@@ -58742,7 +58859,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>259</v>
@@ -58856,7 +58973,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>263</v>
@@ -58970,12 +59087,14 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="C497" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C497" t="s" s="2">
+        <v>776</v>
+      </c>
       <c r="D497" t="s" s="2">
         <v>78</v>
       </c>
@@ -58984,7 +59103,7 @@
         <v>79</v>
       </c>
       <c r="G497" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H497" t="s" s="2">
         <v>78</v>
@@ -58996,20 +59115,16 @@
         <v>89</v>
       </c>
       <c r="K497" t="s" s="2">
-        <v>775</v>
+        <v>146</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>776</v>
+        <v>178</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N497" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O497" t="s" s="2">
-        <v>779</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N497" s="2"/>
+      <c r="O497" s="2"/>
       <c r="P497" t="s" s="2">
         <v>78</v>
       </c>
@@ -59057,30 +59172,3656 @@
         <v>78</v>
       </c>
       <c r="AF497" t="s" s="2">
-        <v>774</v>
+        <v>176</v>
       </c>
       <c r="AG497" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH497" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI497" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ497" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN497" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="B498" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C498" s="2"/>
+      <c r="D498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E498" s="2"/>
+      <c r="F498" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G498" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K498" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L498" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M498" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N498" s="2"/>
+      <c r="O498" s="2"/>
+      <c r="P498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q498" s="2"/>
+      <c r="R498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF498" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG498" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH498" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL498" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN498" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="B499" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C499" s="2"/>
+      <c r="D499" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E499" s="2"/>
+      <c r="F499" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G499" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K499" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L499" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M499" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N499" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O499" s="2"/>
+      <c r="P499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q499" s="2"/>
+      <c r="R499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF499" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG499" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH499" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ499" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL499" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN499" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="B500" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C500" s="2"/>
+      <c r="D500" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E500" s="2"/>
+      <c r="F500" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G500" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I500" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J500" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K500" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L500" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M500" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N500" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O500" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q500" s="2"/>
+      <c r="R500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF500" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG500" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH500" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ500" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL500" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN500" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="B501" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C501" s="2"/>
+      <c r="D501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E501" s="2"/>
+      <c r="F501" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G501" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J501" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K501" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L501" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M501" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N501" s="2"/>
+      <c r="O501" s="2"/>
+      <c r="P501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q501" s="2"/>
+      <c r="R501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF501" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG501" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH501" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ501" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN497" t="s" s="2">
+      <c r="AK501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN501" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="B502" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C502" s="2"/>
+      <c r="D502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E502" s="2"/>
+      <c r="F502" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G502" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J502" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K502" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L502" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M502" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N502" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O502" s="2"/>
+      <c r="P502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q502" s="2"/>
+      <c r="R502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF502" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG502" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH502" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ502" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN502" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="B503" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C503" s="2"/>
+      <c r="D503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E503" s="2"/>
+      <c r="F503" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G503" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K503" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="L503" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="M503" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="N503" s="2"/>
+      <c r="O503" s="2"/>
+      <c r="P503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q503" s="2"/>
+      <c r="R503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF503" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG503" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH503" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL503" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="AM503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN503" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="B504" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C504" s="2"/>
+      <c r="D504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E504" s="2"/>
+      <c r="F504" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G504" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J504" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K504" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L504" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M504" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N504" s="2"/>
+      <c r="O504" s="2"/>
+      <c r="P504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q504" s="2"/>
+      <c r="R504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF504" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AG504" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH504" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI504" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AJ504" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN504" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="B505" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C505" s="2"/>
+      <c r="D505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E505" s="2"/>
+      <c r="F505" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G505" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K505" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L505" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M505" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N505" s="2"/>
+      <c r="O505" s="2"/>
+      <c r="P505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q505" s="2"/>
+      <c r="R505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF505" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG505" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH505" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL505" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN505" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B506" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C506" s="2"/>
+      <c r="D506" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E506" s="2"/>
+      <c r="F506" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G506" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K506" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L506" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M506" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N506" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O506" s="2"/>
+      <c r="P506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q506" s="2"/>
+      <c r="R506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF506" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG506" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH506" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ506" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL506" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN506" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="B507" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C507" s="2"/>
+      <c r="D507" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E507" s="2"/>
+      <c r="F507" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G507" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I507" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J507" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K507" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L507" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M507" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N507" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O507" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q507" s="2"/>
+      <c r="R507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF507" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG507" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH507" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ507" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL507" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN507" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="B508" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C508" s="2"/>
+      <c r="D508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E508" s="2"/>
+      <c r="F508" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G508" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J508" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K508" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L508" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M508" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N508" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O508" s="2"/>
+      <c r="P508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q508" s="2"/>
+      <c r="R508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X508" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y508" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z508" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF508" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG508" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH508" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ508" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN508" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="B509" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C509" s="2"/>
+      <c r="D509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E509" s="2"/>
+      <c r="F509" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G509" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J509" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K509" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L509" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M509" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N509" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O509" s="2"/>
+      <c r="P509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q509" s="2"/>
+      <c r="R509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF509" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG509" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH509" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ509" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN509" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="B510" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C510" s="2"/>
+      <c r="D510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E510" s="2"/>
+      <c r="F510" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G510" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J510" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K510" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L510" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M510" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N510" s="2"/>
+      <c r="O510" s="2"/>
+      <c r="P510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q510" s="2"/>
+      <c r="R510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF510" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG510" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH510" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI510" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AJ510" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN510" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="B511" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C511" s="2"/>
+      <c r="D511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E511" s="2"/>
+      <c r="F511" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G511" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K511" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L511" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M511" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N511" s="2"/>
+      <c r="O511" s="2"/>
+      <c r="P511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q511" s="2"/>
+      <c r="R511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF511" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG511" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH511" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL511" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN511" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="B512" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C512" s="2"/>
+      <c r="D512" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E512" s="2"/>
+      <c r="F512" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G512" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K512" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L512" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M512" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N512" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O512" s="2"/>
+      <c r="P512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q512" s="2"/>
+      <c r="R512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF512" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG512" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH512" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ512" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL512" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN512" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="B513" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C513" s="2"/>
+      <c r="D513" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E513" s="2"/>
+      <c r="F513" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G513" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I513" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J513" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K513" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L513" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M513" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N513" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O513" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q513" s="2"/>
+      <c r="R513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF513" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG513" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH513" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ513" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL513" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN513" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="B514" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C514" s="2"/>
+      <c r="D514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E514" s="2"/>
+      <c r="F514" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G514" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J514" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K514" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L514" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M514" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N514" s="2"/>
+      <c r="O514" s="2"/>
+      <c r="P514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q514" s="2"/>
+      <c r="R514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X514" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y514" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z514" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AA514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF514" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG514" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH514" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ514" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN514" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="B515" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C515" s="2"/>
+      <c r="D515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E515" s="2"/>
+      <c r="F515" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G515" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J515" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K515" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L515" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M515" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N515" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O515" s="2"/>
+      <c r="P515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q515" s="2"/>
+      <c r="R515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF515" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG515" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH515" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ515" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN515" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="B516" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C516" s="2"/>
+      <c r="D516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E516" s="2"/>
+      <c r="F516" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G516" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J516" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K516" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L516" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M516" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N516" s="2"/>
+      <c r="O516" s="2"/>
+      <c r="P516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q516" s="2"/>
+      <c r="R516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF516" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG516" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH516" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ516" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN516" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="B517" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C517" s="2"/>
+      <c r="D517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E517" s="2"/>
+      <c r="F517" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G517" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J517" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K517" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L517" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M517" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N517" s="2"/>
+      <c r="O517" s="2"/>
+      <c r="P517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q517" s="2"/>
+      <c r="R517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF517" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG517" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH517" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ517" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN517" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="B518" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C518" s="2"/>
+      <c r="D518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E518" s="2"/>
+      <c r="F518" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G518" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J518" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K518" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L518" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M518" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N518" s="2"/>
+      <c r="O518" s="2"/>
+      <c r="P518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q518" s="2"/>
+      <c r="R518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF518" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG518" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH518" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ518" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN518" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="B519" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C519" s="2"/>
+      <c r="D519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E519" s="2"/>
+      <c r="F519" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G519" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J519" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K519" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L519" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M519" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N519" s="2"/>
+      <c r="O519" s="2"/>
+      <c r="P519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q519" s="2"/>
+      <c r="R519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF519" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG519" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH519" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ519" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN519" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="B520" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C520" s="2"/>
+      <c r="D520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E520" s="2"/>
+      <c r="F520" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G520" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J520" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K520" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L520" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M520" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N520" s="2"/>
+      <c r="O520" s="2"/>
+      <c r="P520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q520" s="2"/>
+      <c r="R520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF520" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG520" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH520" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI520" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AJ520" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN520" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="B521" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C521" s="2"/>
+      <c r="D521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E521" s="2"/>
+      <c r="F521" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G521" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K521" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L521" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M521" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N521" s="2"/>
+      <c r="O521" s="2"/>
+      <c r="P521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q521" s="2"/>
+      <c r="R521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF521" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG521" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH521" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL521" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN521" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="B522" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C522" s="2"/>
+      <c r="D522" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E522" s="2"/>
+      <c r="F522" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G522" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K522" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L522" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M522" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N522" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O522" s="2"/>
+      <c r="P522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q522" s="2"/>
+      <c r="R522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF522" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG522" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH522" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ522" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL522" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN522" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="B523" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C523" s="2"/>
+      <c r="D523" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E523" s="2"/>
+      <c r="F523" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G523" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I523" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J523" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K523" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L523" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M523" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N523" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O523" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q523" s="2"/>
+      <c r="R523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF523" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG523" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH523" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ523" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL523" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN523" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="B524" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C524" s="2"/>
+      <c r="D524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E524" s="2"/>
+      <c r="F524" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G524" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J524" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K524" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L524" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M524" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N524" s="2"/>
+      <c r="O524" s="2"/>
+      <c r="P524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q524" s="2"/>
+      <c r="R524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF524" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG524" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH524" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ524" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN524" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="B525" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C525" s="2"/>
+      <c r="D525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E525" s="2"/>
+      <c r="F525" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G525" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J525" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K525" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L525" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M525" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N525" s="2"/>
+      <c r="O525" s="2"/>
+      <c r="P525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q525" s="2"/>
+      <c r="R525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF525" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG525" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH525" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ525" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN525" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="B526" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C526" s="2"/>
+      <c r="D526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E526" s="2"/>
+      <c r="F526" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G526" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J526" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K526" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L526" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M526" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N526" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O526" s="2"/>
+      <c r="P526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q526" s="2"/>
+      <c r="R526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF526" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG526" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH526" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ526" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN526" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="B527" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C527" s="2"/>
+      <c r="D527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E527" s="2"/>
+      <c r="F527" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G527" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J527" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K527" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L527" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M527" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N527" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O527" s="2"/>
+      <c r="P527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q527" s="2"/>
+      <c r="R527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF527" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG527" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH527" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ527" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN527" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="B528" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C528" s="2"/>
+      <c r="D528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E528" s="2"/>
+      <c r="F528" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G528" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J528" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K528" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L528" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M528" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N528" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O528" s="2"/>
+      <c r="P528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q528" s="2"/>
+      <c r="R528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF528" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG528" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH528" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN528" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="B529" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="C529" s="2"/>
+      <c r="D529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E529" s="2"/>
+      <c r="F529" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G529" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J529" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K529" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="L529" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M529" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="N529" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="O529" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="P529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q529" s="2"/>
+      <c r="R529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF529" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="AG529" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH529" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ529" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN529" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Bundle — ONEISS Submission</t>
+    <t>RS Bundle — ONEISS Submission</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Bundle — ONEISS Submission</t>
+    <t>Road Safety Bundle — ONEISS Submission</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Bundle — ONEISS Submission</t>
+    <t>RS Bundle — ONEISS Submission</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18899" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17758" uniqueCount="785">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1548,109 +1548,6 @@
     <t>Bundle.entry:observationInjuries.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:observationExtentOfInjury</t>
-  </si>
-  <si>
-    <t>observationExtentOfInjury</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-extent-of-injury}
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationExtentOfInjury.response.outcome</t>
-  </si>
-  <si>
     <t>Bundle.entry:observationClinical</t>
   </si>
   <si>
@@ -1675,7 +1572,7 @@
     <t>Bundle.entry:observationClinical.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-risk-factors|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-condition-of-patient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-outcome-release|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-outcome-discharge|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-status-on-arrival|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-status-on-arrival-alive|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-alcohol}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-risk-factors|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-condition-of-patient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-outcome-release|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-status-on-arrival|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-alcohol}
 </t>
   </si>
   <si>
@@ -2841,7 +2738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN529"/>
+  <dimension ref="A1:AN497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -30101,7 +29998,7 @@
         <v>79</v>
       </c>
       <c r="G241" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>78</v>
@@ -40979,7 +40876,7 @@
         <v>79</v>
       </c>
       <c r="G337" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H337" t="s" s="2">
         <v>78</v>
@@ -41445,7 +41342,7 @@
         <v>89</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L341" t="s" s="2">
         <v>187</v>
@@ -48221,7 +48118,7 @@
         <v>176</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>666</v>
+        <v>127</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>78</v>
@@ -48231,7 +48128,7 @@
         <v>79</v>
       </c>
       <c r="G401" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H401" t="s" s="2">
         <v>78</v>
@@ -48329,7 +48226,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>183</v>
@@ -48441,7 +48338,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>184</v>
@@ -48555,7 +48452,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>185</v>
@@ -48671,7 +48568,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>186</v>
@@ -48783,7 +48680,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>189</v>
@@ -48897,14 +48794,14 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="E407" s="2"/>
       <c r="F407" t="s" s="2">
@@ -48923,16 +48820,16 @@
         <v>78</v>
       </c>
       <c r="K407" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L407" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="L407" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="M407" t="s" s="2">
-        <v>466</v>
+        <v>674</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>467</v>
+        <v>675</v>
       </c>
       <c r="O407" s="2"/>
       <c r="P407" t="s" s="2">
@@ -48997,13 +48894,13 @@
         <v>78</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="AL407" t="s" s="2">
-        <v>469</v>
+        <v>676</v>
       </c>
       <c r="AM407" t="s" s="2">
-        <v>78</v>
+        <v>677</v>
       </c>
       <c r="AN407" t="s" s="2">
         <v>78</v>
@@ -49011,7 +48908,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>197</v>
@@ -49123,7 +49020,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>201</v>
@@ -49235,7 +49132,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>202</v>
@@ -49349,7 +49246,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>203</v>
@@ -49465,7 +49362,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>204</v>
@@ -49579,7 +49476,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>210</v>
@@ -49693,7 +49590,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>215</v>
@@ -49805,7 +49702,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>219</v>
@@ -49917,7 +49814,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>220</v>
@@ -50031,7 +49928,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>221</v>
@@ -50147,7 +50044,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>222</v>
@@ -50259,7 +50156,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>227</v>
@@ -50373,7 +50270,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>231</v>
@@ -50485,7 +50382,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>234</v>
@@ -50597,7 +50494,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>236</v>
@@ -50709,7 +50606,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>239</v>
@@ -50821,7 +50718,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>242</v>
@@ -50933,7 +50830,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>246</v>
@@ -51045,7 +50942,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>247</v>
@@ -51159,7 +51056,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>248</v>
@@ -51275,7 +51172,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>249</v>
@@ -51387,7 +51284,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>252</v>
@@ -51499,7 +51396,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>255</v>
@@ -51613,7 +51510,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>259</v>
@@ -51727,7 +51624,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>263</v>
@@ -51841,13 +51738,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>127</v>
+        <v>704</v>
       </c>
       <c r="D433" t="s" s="2">
         <v>78</v>
@@ -51955,7 +51852,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>183</v>
@@ -52067,7 +51964,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>184</v>
@@ -52181,7 +52078,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>185</v>
@@ -52297,7 +52194,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>186</v>
@@ -52409,7 +52306,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>189</v>
@@ -52523,14 +52420,14 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" t="s" s="2">
-        <v>78</v>
+        <v>711</v>
       </c>
       <c r="E439" s="2"/>
       <c r="F439" t="s" s="2">
@@ -52549,17 +52446,15 @@
         <v>78</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="N439" t="s" s="2">
-        <v>709</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="N439" s="2"/>
       <c r="O439" s="2"/>
       <c r="P439" t="s" s="2">
         <v>78</v>
@@ -52623,13 +52518,13 @@
         <v>78</v>
       </c>
       <c r="AK439" t="s" s="2">
-        <v>78</v>
+        <v>715</v>
       </c>
       <c r="AL439" t="s" s="2">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="AM439" t="s" s="2">
-        <v>711</v>
+        <v>78</v>
       </c>
       <c r="AN439" t="s" s="2">
         <v>78</v>
@@ -52637,7 +52532,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>197</v>
@@ -52749,7 +52644,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>201</v>
@@ -52861,7 +52756,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>202</v>
@@ -52975,7 +52870,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>203</v>
@@ -53091,7 +52986,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>204</v>
@@ -53205,7 +53100,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>210</v>
@@ -53319,7 +53214,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>215</v>
@@ -53431,7 +53326,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>219</v>
@@ -53543,7 +53438,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>220</v>
@@ -53657,7 +53552,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>221</v>
@@ -53773,7 +53668,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>222</v>
@@ -53885,7 +53780,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>227</v>
@@ -53999,7 +53894,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>231</v>
@@ -54111,7 +54006,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>234</v>
@@ -54223,7 +54118,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>236</v>
@@ -54335,7 +54230,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>239</v>
@@ -54447,7 +54342,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>242</v>
@@ -54559,7 +54454,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>246</v>
@@ -54671,7 +54566,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>247</v>
@@ -54785,7 +54680,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>248</v>
@@ -54901,7 +54796,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>249</v>
@@ -55013,7 +54908,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>252</v>
@@ -55125,7 +55020,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>255</v>
@@ -55239,7 +55134,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>259</v>
@@ -55353,7 +55248,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>263</v>
@@ -55467,13 +55362,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D465" t="s" s="2">
         <v>78</v>
@@ -55581,7 +55476,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>183</v>
@@ -55693,7 +55588,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>184</v>
@@ -55807,7 +55702,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>185</v>
@@ -55923,7 +55818,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>186</v>
@@ -56035,7 +55930,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>189</v>
@@ -56149,14 +56044,14 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" t="s" s="2">
-        <v>745</v>
+        <v>78</v>
       </c>
       <c r="E471" s="2"/>
       <c r="F471" t="s" s="2">
@@ -56175,13 +56070,13 @@
         <v>78</v>
       </c>
       <c r="K471" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="N471" s="2"/>
       <c r="O471" s="2"/>
@@ -56247,10 +56142,10 @@
         <v>78</v>
       </c>
       <c r="AK471" t="s" s="2">
-        <v>749</v>
+        <v>78</v>
       </c>
       <c r="AL471" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="AM471" t="s" s="2">
         <v>78</v>
@@ -56261,7 +56156,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>197</v>
@@ -56373,7 +56268,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>201</v>
@@ -56485,7 +56380,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>202</v>
@@ -56599,7 +56494,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>203</v>
@@ -56715,7 +56610,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>204</v>
@@ -56829,7 +56724,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>210</v>
@@ -56943,7 +56838,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>215</v>
@@ -57055,7 +56950,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>219</v>
@@ -57167,7 +57062,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>220</v>
@@ -57281,7 +57176,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>221</v>
@@ -57397,7 +57292,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>222</v>
@@ -57509,7 +57404,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>227</v>
@@ -57623,7 +57518,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>231</v>
@@ -57735,7 +57630,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>234</v>
@@ -57847,7 +57742,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>236</v>
@@ -57959,7 +57854,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>239</v>
@@ -58071,7 +57966,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>242</v>
@@ -58183,7 +58078,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>246</v>
@@ -58295,7 +58190,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>247</v>
@@ -58409,7 +58304,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>248</v>
@@ -58525,7 +58420,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>249</v>
@@ -58637,7 +58532,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>252</v>
@@ -58749,7 +58644,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>255</v>
@@ -58863,7 +58758,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>259</v>
@@ -58977,7 +58872,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>263</v>
@@ -59091,14 +58986,12 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C497" t="s" s="2">
-        <v>777</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="C497" s="2"/>
       <c r="D497" t="s" s="2">
         <v>78</v>
       </c>
@@ -59107,7 +59000,7 @@
         <v>79</v>
       </c>
       <c r="G497" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H497" t="s" s="2">
         <v>78</v>
@@ -59119,16 +59012,20 @@
         <v>89</v>
       </c>
       <c r="K497" t="s" s="2">
-        <v>146</v>
+        <v>780</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>178</v>
+        <v>781</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N497" s="2"/>
-      <c r="O497" s="2"/>
+        <v>782</v>
+      </c>
+      <c r="N497" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="O497" t="s" s="2">
+        <v>784</v>
+      </c>
       <c r="P497" t="s" s="2">
         <v>78</v>
       </c>
@@ -59176,19 +59073,19 @@
         <v>78</v>
       </c>
       <c r="AF497" t="s" s="2">
-        <v>176</v>
+        <v>779</v>
       </c>
       <c r="AG497" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH497" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI497" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ497" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="AK497" t="s" s="2">
         <v>78</v>
@@ -59200,3632 +59097,6 @@
         <v>78</v>
       </c>
       <c r="AN497" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="B498" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C498" s="2"/>
-      <c r="D498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E498" s="2"/>
-      <c r="F498" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G498" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K498" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L498" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M498" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N498" s="2"/>
-      <c r="O498" s="2"/>
-      <c r="P498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q498" s="2"/>
-      <c r="R498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF498" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG498" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH498" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL498" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM498" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN498" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="B499" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C499" s="2"/>
-      <c r="D499" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E499" s="2"/>
-      <c r="F499" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G499" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K499" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L499" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M499" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N499" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O499" s="2"/>
-      <c r="P499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q499" s="2"/>
-      <c r="R499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF499" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG499" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH499" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ499" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL499" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN499" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="B500" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C500" s="2"/>
-      <c r="D500" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E500" s="2"/>
-      <c r="F500" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G500" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I500" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J500" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K500" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L500" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M500" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N500" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O500" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q500" s="2"/>
-      <c r="R500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF500" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG500" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH500" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ500" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL500" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN500" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="B501" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C501" s="2"/>
-      <c r="D501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E501" s="2"/>
-      <c r="F501" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G501" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J501" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L501" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M501" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N501" s="2"/>
-      <c r="O501" s="2"/>
-      <c r="P501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q501" s="2"/>
-      <c r="R501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF501" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG501" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH501" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ501" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM501" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN501" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="B502" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C502" s="2"/>
-      <c r="D502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E502" s="2"/>
-      <c r="F502" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G502" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J502" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K502" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L502" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M502" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N502" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O502" s="2"/>
-      <c r="P502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q502" s="2"/>
-      <c r="R502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF502" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AG502" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH502" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ502" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM502" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN502" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="B503" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C503" s="2"/>
-      <c r="D503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E503" s="2"/>
-      <c r="F503" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G503" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K503" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="L503" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="M503" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="N503" s="2"/>
-      <c r="O503" s="2"/>
-      <c r="P503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q503" s="2"/>
-      <c r="R503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF503" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG503" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH503" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL503" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="AM503" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN503" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="B504" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C504" s="2"/>
-      <c r="D504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E504" s="2"/>
-      <c r="F504" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G504" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J504" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K504" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L504" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M504" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N504" s="2"/>
-      <c r="O504" s="2"/>
-      <c r="P504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q504" s="2"/>
-      <c r="R504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF504" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AG504" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH504" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI504" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AJ504" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM504" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN504" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="B505" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C505" s="2"/>
-      <c r="D505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E505" s="2"/>
-      <c r="F505" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G505" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K505" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L505" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M505" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N505" s="2"/>
-      <c r="O505" s="2"/>
-      <c r="P505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q505" s="2"/>
-      <c r="R505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF505" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG505" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH505" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL505" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM505" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN505" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="B506" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C506" s="2"/>
-      <c r="D506" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E506" s="2"/>
-      <c r="F506" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G506" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K506" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L506" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M506" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N506" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O506" s="2"/>
-      <c r="P506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q506" s="2"/>
-      <c r="R506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF506" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG506" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH506" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ506" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL506" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM506" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN506" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="B507" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C507" s="2"/>
-      <c r="D507" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E507" s="2"/>
-      <c r="F507" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G507" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I507" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J507" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K507" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L507" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M507" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N507" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O507" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q507" s="2"/>
-      <c r="R507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF507" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG507" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH507" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ507" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL507" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM507" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN507" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="B508" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C508" s="2"/>
-      <c r="D508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E508" s="2"/>
-      <c r="F508" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G508" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J508" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K508" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L508" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M508" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N508" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O508" s="2"/>
-      <c r="P508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q508" s="2"/>
-      <c r="R508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X508" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="Y508" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z508" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF508" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG508" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH508" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ508" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM508" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN508" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="B509" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C509" s="2"/>
-      <c r="D509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E509" s="2"/>
-      <c r="F509" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G509" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J509" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K509" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="L509" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M509" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N509" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O509" s="2"/>
-      <c r="P509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q509" s="2"/>
-      <c r="R509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF509" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG509" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH509" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ509" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM509" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN509" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="B510" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C510" s="2"/>
-      <c r="D510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E510" s="2"/>
-      <c r="F510" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G510" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J510" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K510" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L510" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M510" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N510" s="2"/>
-      <c r="O510" s="2"/>
-      <c r="P510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q510" s="2"/>
-      <c r="R510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF510" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AG510" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH510" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI510" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AJ510" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM510" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN510" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="s" s="2">
-        <v>795</v>
-      </c>
-      <c r="B511" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C511" s="2"/>
-      <c r="D511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E511" s="2"/>
-      <c r="F511" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G511" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K511" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L511" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M511" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N511" s="2"/>
-      <c r="O511" s="2"/>
-      <c r="P511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q511" s="2"/>
-      <c r="R511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF511" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG511" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH511" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL511" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM511" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN511" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="B512" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C512" s="2"/>
-      <c r="D512" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E512" s="2"/>
-      <c r="F512" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G512" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K512" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L512" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M512" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N512" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O512" s="2"/>
-      <c r="P512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q512" s="2"/>
-      <c r="R512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF512" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG512" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH512" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ512" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL512" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM512" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN512" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="B513" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C513" s="2"/>
-      <c r="D513" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E513" s="2"/>
-      <c r="F513" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G513" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I513" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J513" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K513" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L513" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M513" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N513" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O513" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q513" s="2"/>
-      <c r="R513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF513" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG513" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH513" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ513" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL513" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM513" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN513" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="B514" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C514" s="2"/>
-      <c r="D514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E514" s="2"/>
-      <c r="F514" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G514" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J514" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K514" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L514" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M514" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N514" s="2"/>
-      <c r="O514" s="2"/>
-      <c r="P514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q514" s="2"/>
-      <c r="R514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X514" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="Y514" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Z514" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AA514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF514" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG514" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH514" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ514" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM514" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN514" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="B515" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C515" s="2"/>
-      <c r="D515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E515" s="2"/>
-      <c r="F515" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G515" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J515" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K515" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L515" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M515" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N515" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O515" s="2"/>
-      <c r="P515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q515" s="2"/>
-      <c r="R515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF515" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG515" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH515" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ515" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM515" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN515" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="B516" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C516" s="2"/>
-      <c r="D516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E516" s="2"/>
-      <c r="F516" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G516" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J516" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K516" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L516" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M516" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N516" s="2"/>
-      <c r="O516" s="2"/>
-      <c r="P516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q516" s="2"/>
-      <c r="R516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF516" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG516" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH516" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ516" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM516" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN516" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="B517" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C517" s="2"/>
-      <c r="D517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E517" s="2"/>
-      <c r="F517" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G517" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J517" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K517" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L517" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M517" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N517" s="2"/>
-      <c r="O517" s="2"/>
-      <c r="P517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q517" s="2"/>
-      <c r="R517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF517" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG517" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH517" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ517" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM517" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN517" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="B518" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C518" s="2"/>
-      <c r="D518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E518" s="2"/>
-      <c r="F518" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G518" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J518" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K518" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L518" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M518" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N518" s="2"/>
-      <c r="O518" s="2"/>
-      <c r="P518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q518" s="2"/>
-      <c r="R518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF518" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG518" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH518" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ518" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM518" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN518" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="B519" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C519" s="2"/>
-      <c r="D519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E519" s="2"/>
-      <c r="F519" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G519" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J519" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K519" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L519" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M519" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N519" s="2"/>
-      <c r="O519" s="2"/>
-      <c r="P519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q519" s="2"/>
-      <c r="R519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF519" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AG519" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH519" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ519" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM519" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN519" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="B520" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C520" s="2"/>
-      <c r="D520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E520" s="2"/>
-      <c r="F520" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G520" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J520" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K520" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L520" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M520" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N520" s="2"/>
-      <c r="O520" s="2"/>
-      <c r="P520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q520" s="2"/>
-      <c r="R520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF520" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AG520" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH520" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI520" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AJ520" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM520" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN520" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="B521" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C521" s="2"/>
-      <c r="D521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E521" s="2"/>
-      <c r="F521" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G521" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K521" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L521" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M521" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N521" s="2"/>
-      <c r="O521" s="2"/>
-      <c r="P521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q521" s="2"/>
-      <c r="R521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF521" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG521" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH521" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL521" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM521" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN521" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="B522" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C522" s="2"/>
-      <c r="D522" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E522" s="2"/>
-      <c r="F522" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G522" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K522" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L522" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M522" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N522" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O522" s="2"/>
-      <c r="P522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q522" s="2"/>
-      <c r="R522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF522" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG522" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH522" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ522" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL522" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM522" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN522" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="B523" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C523" s="2"/>
-      <c r="D523" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E523" s="2"/>
-      <c r="F523" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G523" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I523" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J523" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K523" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L523" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M523" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N523" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O523" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q523" s="2"/>
-      <c r="R523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF523" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG523" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH523" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ523" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL523" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM523" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN523" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="B524" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C524" s="2"/>
-      <c r="D524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E524" s="2"/>
-      <c r="F524" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G524" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J524" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K524" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L524" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M524" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N524" s="2"/>
-      <c r="O524" s="2"/>
-      <c r="P524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q524" s="2"/>
-      <c r="R524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF524" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG524" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH524" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ524" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM524" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN524" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="B525" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C525" s="2"/>
-      <c r="D525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E525" s="2"/>
-      <c r="F525" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G525" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J525" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K525" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L525" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M525" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N525" s="2"/>
-      <c r="O525" s="2"/>
-      <c r="P525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q525" s="2"/>
-      <c r="R525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF525" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AG525" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH525" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ525" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM525" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN525" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="B526" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C526" s="2"/>
-      <c r="D526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E526" s="2"/>
-      <c r="F526" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G526" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J526" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K526" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L526" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M526" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N526" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O526" s="2"/>
-      <c r="P526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q526" s="2"/>
-      <c r="R526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF526" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AG526" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH526" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ526" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM526" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN526" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="B527" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C527" s="2"/>
-      <c r="D527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E527" s="2"/>
-      <c r="F527" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G527" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J527" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K527" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L527" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M527" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N527" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O527" s="2"/>
-      <c r="P527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q527" s="2"/>
-      <c r="R527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF527" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AG527" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH527" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ527" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM527" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN527" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="B528" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C528" s="2"/>
-      <c r="D528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E528" s="2"/>
-      <c r="F528" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G528" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J528" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K528" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L528" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M528" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N528" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O528" s="2"/>
-      <c r="P528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q528" s="2"/>
-      <c r="R528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF528" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AG528" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH528" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM528" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN528" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="B529" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="C529" s="2"/>
-      <c r="D529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E529" s="2"/>
-      <c r="F529" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G529" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J529" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K529" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="L529" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="M529" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="N529" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="O529" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="P529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q529" s="2"/>
-      <c r="R529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF529" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="AG529" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH529" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ529" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM529" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN529" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1675,7 +1675,7 @@
     <t>Bundle.entry:observationIncident.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-datetime|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-intent|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-transport-vehicular-accident|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-mode-of-transport|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-collision-vs-noncollision|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-patients-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-position-of-patient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-how-many-vehicles|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-how-many-patients|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-place-of-occurrence|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-activity-at-incident|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-safety-accessories|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-triage-priority|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-urgency}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-datetime|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-intent|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-transport-vehicular-accident|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-mode-of-transport|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-collision-vs-noncollision|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-patients-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-other-vehicle|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-position-of-patient|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-how-many-vehicles|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-place-of-occurrence|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-activity-at-incident|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-safety-accessories|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-triage-priority|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-urgency}
 </t>
   </si>
   <si>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17758" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17757" uniqueCount="780">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -404,7 +404,7 @@
     <t>It's possible to use a bundle for other purposes (e.g. a document can be accepted as a transaction). This is primarily defined so that there can be specific rules for some of the bundle types.</t>
   </si>
   <si>
-    <t>document</t>
+    <t>transaction</t>
   </si>
   <si>
     <t>required</t>
@@ -879,25 +879,6 @@
     <t>Bundle.entry:composition.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-composition-oneiss}
-</t>
-  </si>
-  <si>
-    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
-  </si>
-  <si>
-    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
-  </si>
-  <si>
-    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
-  </si>
-  <si>
-    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument</t>
-  </si>
-  <si>
     <t>Bundle.entry:composition.search</t>
   </si>
   <si>
@@ -2064,6 +2045,9 @@
   </si>
   <si>
     <t>Bundle.entry:document</t>
+  </si>
+  <si>
+    <t>document</t>
   </si>
   <si>
     <t>Bundle.entry:document.id</t>
@@ -8939,20 +8923,18 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>194</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -9019,10 +9001,10 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -9030,7 +9012,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>197</v>
@@ -9142,7 +9124,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>201</v>
@@ -9254,7 +9236,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>202</v>
@@ -9368,7 +9350,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>203</v>
@@ -9484,7 +9466,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>204</v>
@@ -9598,7 +9580,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>210</v>
@@ -9712,7 +9694,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>215</v>
@@ -9824,7 +9806,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>219</v>
@@ -9936,7 +9918,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>220</v>
@@ -10050,7 +10032,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>221</v>
@@ -10166,7 +10148,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>222</v>
@@ -10278,7 +10260,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>227</v>
@@ -10392,7 +10374,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>231</v>
@@ -10504,7 +10486,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>234</v>
@@ -10616,7 +10598,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>236</v>
@@ -10728,7 +10710,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>239</v>
@@ -10840,7 +10822,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>242</v>
@@ -10952,7 +10934,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>246</v>
@@ -11064,7 +11046,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>247</v>
@@ -11178,7 +11160,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>248</v>
@@ -11294,7 +11276,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>249</v>
@@ -11406,7 +11388,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>252</v>
@@ -11518,7 +11500,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>255</v>
@@ -11632,7 +11614,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>259</v>
@@ -11746,7 +11728,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>263</v>
@@ -11860,13 +11842,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>78</v>
@@ -11974,7 +11956,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>183</v>
@@ -12086,7 +12068,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>184</v>
@@ -12200,7 +12182,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>185</v>
@@ -12316,7 +12298,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>186</v>
@@ -12428,7 +12410,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>189</v>
@@ -12542,14 +12524,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12568,13 +12550,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12643,10 +12625,10 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12654,7 +12636,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>197</v>
@@ -12766,7 +12748,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>201</v>
@@ -12878,7 +12860,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>202</v>
@@ -12992,7 +12974,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>203</v>
@@ -13108,7 +13090,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>204</v>
@@ -13222,7 +13204,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>210</v>
@@ -13336,7 +13318,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>215</v>
@@ -13448,7 +13430,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>219</v>
@@ -13560,7 +13542,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>220</v>
@@ -13674,7 +13656,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>221</v>
@@ -13790,7 +13772,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>222</v>
@@ -13902,7 +13884,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>227</v>
@@ -14016,7 +13998,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>231</v>
@@ -14128,7 +14110,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>234</v>
@@ -14240,7 +14222,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>236</v>
@@ -14352,7 +14334,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>239</v>
@@ -14464,7 +14446,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>242</v>
@@ -14576,7 +14558,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>246</v>
@@ -14688,7 +14670,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>247</v>
@@ -14802,7 +14784,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>248</v>
@@ -14918,7 +14900,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>249</v>
@@ -15030,7 +15012,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>252</v>
@@ -15142,7 +15124,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>255</v>
@@ -15256,7 +15238,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>259</v>
@@ -15370,7 +15352,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>263</v>
@@ -15484,13 +15466,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>78</v>
@@ -15598,7 +15580,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>183</v>
@@ -15710,7 +15692,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>184</v>
@@ -15824,7 +15806,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>185</v>
@@ -15940,7 +15922,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>186</v>
@@ -16052,7 +16034,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>189</v>
@@ -16166,14 +16148,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16192,13 +16174,13 @@
         <v>78</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16267,7 +16249,7 @@
         <v>78</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>78</v>
@@ -16278,7 +16260,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>197</v>
@@ -16390,7 +16372,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>201</v>
@@ -16502,7 +16484,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>202</v>
@@ -16616,7 +16598,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>203</v>
@@ -16732,7 +16714,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>204</v>
@@ -16846,7 +16828,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>210</v>
@@ -16960,7 +16942,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>215</v>
@@ -17072,7 +17054,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>219</v>
@@ -17184,7 +17166,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>220</v>
@@ -17298,7 +17280,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>221</v>
@@ -17414,7 +17396,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>222</v>
@@ -17526,7 +17508,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>227</v>
@@ -17640,7 +17622,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>231</v>
@@ -17752,7 +17734,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>234</v>
@@ -17864,7 +17846,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>236</v>
@@ -17976,7 +17958,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>239</v>
@@ -18088,7 +18070,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>242</v>
@@ -18200,7 +18182,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>246</v>
@@ -18312,7 +18294,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>247</v>
@@ -18426,7 +18408,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>248</v>
@@ -18542,7 +18524,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>249</v>
@@ -18654,7 +18636,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>252</v>
@@ -18766,7 +18748,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>255</v>
@@ -18880,7 +18862,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>259</v>
@@ -18994,7 +18976,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>263</v>
@@ -19108,13 +19090,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>78</v>
@@ -19222,7 +19204,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>183</v>
@@ -19334,7 +19316,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>184</v>
@@ -19448,7 +19430,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>185</v>
@@ -19564,7 +19546,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>186</v>
@@ -19676,7 +19658,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>189</v>
@@ -19790,7 +19772,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>193</v>
@@ -19816,13 +19798,13 @@
         <v>78</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19888,10 +19870,10 @@
         <v>78</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>78</v>
@@ -19902,7 +19884,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>197</v>
@@ -20014,7 +19996,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>201</v>
@@ -20126,7 +20108,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>202</v>
@@ -20240,7 +20222,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>203</v>
@@ -20356,7 +20338,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>204</v>
@@ -20470,7 +20452,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>210</v>
@@ -20584,7 +20566,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>215</v>
@@ -20696,7 +20678,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>219</v>
@@ -20808,7 +20790,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>220</v>
@@ -20922,7 +20904,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>221</v>
@@ -21038,7 +21020,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>222</v>
@@ -21150,7 +21132,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>227</v>
@@ -21264,7 +21246,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>231</v>
@@ -21376,7 +21358,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>234</v>
@@ -21488,7 +21470,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>236</v>
@@ -21600,7 +21582,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>239</v>
@@ -21712,7 +21694,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>242</v>
@@ -21824,7 +21806,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>246</v>
@@ -21936,7 +21918,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>247</v>
@@ -22050,7 +22032,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>248</v>
@@ -22166,7 +22148,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>249</v>
@@ -22278,7 +22260,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>252</v>
@@ -22390,7 +22372,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>255</v>
@@ -22504,7 +22486,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>259</v>
@@ -22618,7 +22600,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>263</v>
@@ -22732,13 +22714,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>78</v>
@@ -22846,7 +22828,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>183</v>
@@ -22958,7 +22940,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>184</v>
@@ -23072,7 +23054,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>185</v>
@@ -23188,7 +23170,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>186</v>
@@ -23300,7 +23282,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>189</v>
@@ -23414,7 +23396,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>193</v>
@@ -23440,13 +23422,13 @@
         <v>78</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -23512,10 +23494,10 @@
         <v>78</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>78</v>
@@ -23526,7 +23508,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>197</v>
@@ -23638,7 +23620,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>201</v>
@@ -23750,7 +23732,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>202</v>
@@ -23864,7 +23846,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>203</v>
@@ -23980,7 +23962,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>204</v>
@@ -24094,7 +24076,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>210</v>
@@ -24208,7 +24190,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>215</v>
@@ -24320,7 +24302,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>219</v>
@@ -24432,7 +24414,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>220</v>
@@ -24546,7 +24528,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>221</v>
@@ -24662,7 +24644,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>222</v>
@@ -24774,7 +24756,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>227</v>
@@ -24888,7 +24870,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>231</v>
@@ -25000,7 +24982,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>234</v>
@@ -25112,7 +25094,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>236</v>
@@ -25224,7 +25206,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>239</v>
@@ -25336,7 +25318,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>242</v>
@@ -25448,7 +25430,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>246</v>
@@ -25560,7 +25542,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>247</v>
@@ -25674,7 +25656,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>248</v>
@@ -25790,7 +25772,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>249</v>
@@ -25902,7 +25884,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>252</v>
@@ -26014,7 +25996,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>255</v>
@@ -26128,7 +26110,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>259</v>
@@ -26242,7 +26224,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>263</v>
@@ -26356,13 +26338,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>78</v>
@@ -26470,7 +26452,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>183</v>
@@ -26582,7 +26564,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>184</v>
@@ -26696,7 +26678,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>185</v>
@@ -26812,7 +26794,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>186</v>
@@ -26924,7 +26906,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>189</v>
@@ -27038,14 +27020,14 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -27064,16 +27046,16 @@
         <v>78</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -27138,10 +27120,10 @@
         <v>78</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>78</v>
@@ -27152,7 +27134,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>197</v>
@@ -27264,7 +27246,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>201</v>
@@ -27376,7 +27358,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>202</v>
@@ -27490,7 +27472,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>203</v>
@@ -27606,7 +27588,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>204</v>
@@ -27720,7 +27702,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>210</v>
@@ -27834,7 +27816,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>215</v>
@@ -27946,7 +27928,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>219</v>
@@ -28058,7 +28040,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>220</v>
@@ -28172,7 +28154,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>221</v>
@@ -28288,7 +28270,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>222</v>
@@ -28400,7 +28382,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>227</v>
@@ -28514,7 +28496,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>231</v>
@@ -28626,7 +28608,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>234</v>
@@ -28738,7 +28720,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>236</v>
@@ -28850,7 +28832,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>239</v>
@@ -28962,7 +28944,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>242</v>
@@ -29074,7 +29056,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>246</v>
@@ -29186,7 +29168,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>247</v>
@@ -29300,7 +29282,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>248</v>
@@ -29416,7 +29398,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>249</v>
@@ -29528,7 +29510,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>252</v>
@@ -29640,7 +29622,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>255</v>
@@ -29754,7 +29736,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>259</v>
@@ -29868,7 +29850,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>263</v>
@@ -29982,13 +29964,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>78</v>
@@ -30096,7 +30078,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>183</v>
@@ -30208,7 +30190,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>184</v>
@@ -30322,7 +30304,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>185</v>
@@ -30438,7 +30420,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>186</v>
@@ -30550,7 +30532,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>189</v>
@@ -30664,14 +30646,14 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -30690,16 +30672,16 @@
         <v>78</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
@@ -30764,10 +30746,10 @@
         <v>78</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>78</v>
@@ -30778,7 +30760,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>197</v>
@@ -30890,7 +30872,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>201</v>
@@ -31002,7 +30984,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>202</v>
@@ -31116,7 +31098,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>203</v>
@@ -31232,7 +31214,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>204</v>
@@ -31346,7 +31328,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>210</v>
@@ -31460,7 +31442,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>215</v>
@@ -31572,7 +31554,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>219</v>
@@ -31684,7 +31666,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>220</v>
@@ -31798,7 +31780,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>221</v>
@@ -31914,7 +31896,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>222</v>
@@ -32026,7 +32008,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>227</v>
@@ -32140,7 +32122,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>231</v>
@@ -32252,7 +32234,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>234</v>
@@ -32364,7 +32346,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>236</v>
@@ -32476,7 +32458,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>239</v>
@@ -32588,7 +32570,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>242</v>
@@ -32700,7 +32682,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>246</v>
@@ -32812,7 +32794,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>247</v>
@@ -32926,7 +32908,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>248</v>
@@ -33042,7 +33024,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>249</v>
@@ -33154,7 +33136,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>252</v>
@@ -33266,7 +33248,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>255</v>
@@ -33380,7 +33362,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>259</v>
@@ -33494,7 +33476,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>263</v>
@@ -33608,13 +33590,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>78</v>
@@ -33722,7 +33704,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>183</v>
@@ -33834,7 +33816,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>184</v>
@@ -33948,7 +33930,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>185</v>
@@ -34064,7 +34046,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>186</v>
@@ -34176,7 +34158,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>189</v>
@@ -34290,14 +34272,14 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
@@ -34316,16 +34298,16 @@
         <v>78</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O279" s="2"/>
       <c r="P279" t="s" s="2">
@@ -34390,10 +34372,10 @@
         <v>78</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>78</v>
@@ -34404,7 +34386,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>197</v>
@@ -34516,7 +34498,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>201</v>
@@ -34628,7 +34610,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>202</v>
@@ -34742,7 +34724,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>203</v>
@@ -34858,7 +34840,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>204</v>
@@ -34972,7 +34954,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>210</v>
@@ -35086,7 +35068,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>215</v>
@@ -35198,7 +35180,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>219</v>
@@ -35310,7 +35292,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>220</v>
@@ -35424,7 +35406,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>221</v>
@@ -35540,7 +35522,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>222</v>
@@ -35652,7 +35634,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>227</v>
@@ -35766,7 +35748,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>231</v>
@@ -35878,7 +35860,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>234</v>
@@ -35990,7 +35972,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>236</v>
@@ -36102,7 +36084,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>239</v>
@@ -36214,7 +36196,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>242</v>
@@ -36326,7 +36308,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>246</v>
@@ -36438,7 +36420,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>247</v>
@@ -36552,7 +36534,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>248</v>
@@ -36668,7 +36650,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>249</v>
@@ -36780,7 +36762,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>252</v>
@@ -36892,7 +36874,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>255</v>
@@ -37006,7 +36988,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>259</v>
@@ -37120,7 +37102,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>263</v>
@@ -37234,13 +37216,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D305" t="s" s="2">
         <v>78</v>
@@ -37348,7 +37330,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>183</v>
@@ -37460,7 +37442,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>184</v>
@@ -37574,7 +37556,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>185</v>
@@ -37690,7 +37672,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>186</v>
@@ -37802,7 +37784,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>189</v>
@@ -37916,14 +37898,14 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
@@ -37942,16 +37924,16 @@
         <v>78</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
@@ -38016,10 +37998,10 @@
         <v>78</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>78</v>
@@ -38030,7 +38012,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>197</v>
@@ -38142,7 +38124,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>201</v>
@@ -38254,7 +38236,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>202</v>
@@ -38368,7 +38350,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>203</v>
@@ -38484,7 +38466,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>204</v>
@@ -38598,7 +38580,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>210</v>
@@ -38712,7 +38694,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>215</v>
@@ -38824,7 +38806,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>219</v>
@@ -38936,7 +38918,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>220</v>
@@ -39050,7 +39032,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>221</v>
@@ -39166,7 +39148,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>222</v>
@@ -39278,7 +39260,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>227</v>
@@ -39392,7 +39374,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>231</v>
@@ -39504,7 +39486,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>234</v>
@@ -39616,7 +39598,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>236</v>
@@ -39728,7 +39710,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>239</v>
@@ -39840,7 +39822,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>242</v>
@@ -39952,7 +39934,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>246</v>
@@ -40064,7 +40046,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>247</v>
@@ -40178,7 +40160,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>248</v>
@@ -40294,7 +40276,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>249</v>
@@ -40406,7 +40388,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>252</v>
@@ -40518,7 +40500,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>255</v>
@@ -40632,7 +40614,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>259</v>
@@ -40746,7 +40728,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>263</v>
@@ -40860,13 +40842,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D337" t="s" s="2">
         <v>78</v>
@@ -40974,7 +40956,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>183</v>
@@ -41086,7 +41068,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>184</v>
@@ -41200,7 +41182,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>185</v>
@@ -41316,7 +41298,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>186</v>
@@ -41428,7 +41410,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>189</v>
@@ -41542,14 +41524,14 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
@@ -41568,16 +41550,16 @@
         <v>78</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
@@ -41642,10 +41624,10 @@
         <v>78</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AL343" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>78</v>
@@ -41656,7 +41638,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>197</v>
@@ -41768,7 +41750,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>201</v>
@@ -41880,7 +41862,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>202</v>
@@ -41994,7 +41976,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>203</v>
@@ -42110,7 +42092,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>204</v>
@@ -42224,7 +42206,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>210</v>
@@ -42338,7 +42320,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>215</v>
@@ -42450,7 +42432,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>219</v>
@@ -42562,7 +42544,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>220</v>
@@ -42676,7 +42658,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>221</v>
@@ -42792,7 +42774,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>222</v>
@@ -42904,7 +42886,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>227</v>
@@ -43018,7 +43000,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>231</v>
@@ -43130,7 +43112,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>234</v>
@@ -43242,7 +43224,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>236</v>
@@ -43354,7 +43336,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>239</v>
@@ -43466,7 +43448,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>242</v>
@@ -43578,7 +43560,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>246</v>
@@ -43690,7 +43672,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>247</v>
@@ -43804,7 +43786,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>248</v>
@@ -43920,7 +43902,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>249</v>
@@ -44032,7 +44014,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>252</v>
@@ -44144,7 +44126,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>255</v>
@@ -44258,7 +44240,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>259</v>
@@ -44372,7 +44354,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>263</v>
@@ -44486,13 +44468,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>78</v>
@@ -44600,7 +44582,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>183</v>
@@ -44712,7 +44694,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>184</v>
@@ -44826,7 +44808,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>185</v>
@@ -44942,7 +44924,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>186</v>
@@ -45054,7 +45036,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>189</v>
@@ -45168,14 +45150,14 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
@@ -45194,16 +45176,16 @@
         <v>78</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
@@ -45268,10 +45250,10 @@
         <v>78</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AL375" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AM375" t="s" s="2">
         <v>78</v>
@@ -45282,7 +45264,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>197</v>
@@ -45394,7 +45376,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>201</v>
@@ -45506,7 +45488,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>202</v>
@@ -45620,7 +45602,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>203</v>
@@ -45736,7 +45718,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>204</v>
@@ -45850,7 +45832,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>210</v>
@@ -45964,7 +45946,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>215</v>
@@ -46076,7 +46058,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>219</v>
@@ -46188,7 +46170,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>220</v>
@@ -46302,7 +46284,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>221</v>
@@ -46418,7 +46400,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>222</v>
@@ -46530,7 +46512,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>227</v>
@@ -46644,7 +46626,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>231</v>
@@ -46756,7 +46738,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>234</v>
@@ -46868,7 +46850,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>236</v>
@@ -46980,7 +46962,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>239</v>
@@ -47092,7 +47074,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>242</v>
@@ -47204,7 +47186,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>246</v>
@@ -47316,7 +47298,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>247</v>
@@ -47430,7 +47412,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>248</v>
@@ -47546,7 +47528,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>249</v>
@@ -47658,7 +47640,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>252</v>
@@ -47770,7 +47752,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>255</v>
@@ -47884,7 +47866,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>259</v>
@@ -47998,7 +47980,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>263</v>
@@ -48112,13 +48094,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>127</v>
+        <v>660</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>78</v>
@@ -48226,7 +48208,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>183</v>
@@ -48338,7 +48320,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>184</v>
@@ -48452,7 +48434,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>185</v>
@@ -48568,7 +48550,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>186</v>
@@ -48680,7 +48662,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>189</v>
@@ -48794,7 +48776,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>193</v>
@@ -48820,16 +48802,16 @@
         <v>78</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="O407" s="2"/>
       <c r="P407" t="s" s="2">
@@ -48897,10 +48879,10 @@
         <v>78</v>
       </c>
       <c r="AL407" t="s" s="2">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="AM407" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AN407" t="s" s="2">
         <v>78</v>
@@ -48908,7 +48890,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>197</v>
@@ -49020,7 +49002,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>201</v>
@@ -49132,7 +49114,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>202</v>
@@ -49246,7 +49228,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>203</v>
@@ -49362,7 +49344,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>204</v>
@@ -49476,7 +49458,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>210</v>
@@ -49590,7 +49572,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>215</v>
@@ -49702,7 +49684,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>219</v>
@@ -49814,7 +49796,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>220</v>
@@ -49928,7 +49910,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>221</v>
@@ -50044,7 +50026,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>222</v>
@@ -50156,7 +50138,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>227</v>
@@ -50270,7 +50252,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>231</v>
@@ -50382,7 +50364,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>234</v>
@@ -50494,7 +50476,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>236</v>
@@ -50606,7 +50588,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>239</v>
@@ -50718,7 +50700,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>242</v>
@@ -50830,7 +50812,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>246</v>
@@ -50942,7 +50924,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>247</v>
@@ -51056,7 +51038,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>248</v>
@@ -51172,7 +51154,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>249</v>
@@ -51284,7 +51266,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>252</v>
@@ -51396,7 +51378,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>255</v>
@@ -51510,7 +51492,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>259</v>
@@ -51624,7 +51606,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>263</v>
@@ -51738,13 +51720,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D433" t="s" s="2">
         <v>78</v>
@@ -51852,7 +51834,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>183</v>
@@ -51964,7 +51946,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>184</v>
@@ -52078,7 +52060,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>185</v>
@@ -52194,7 +52176,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>186</v>
@@ -52306,7 +52288,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>189</v>
@@ -52420,14 +52402,14 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E439" s="2"/>
       <c r="F439" t="s" s="2">
@@ -52446,13 +52428,13 @@
         <v>78</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="N439" s="2"/>
       <c r="O439" s="2"/>
@@ -52518,10 +52500,10 @@
         <v>78</v>
       </c>
       <c r="AK439" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="AL439" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="AM439" t="s" s="2">
         <v>78</v>
@@ -52532,7 +52514,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>197</v>
@@ -52644,7 +52626,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>201</v>
@@ -52756,7 +52738,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>202</v>
@@ -52870,7 +52852,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>203</v>
@@ -52986,7 +52968,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>204</v>
@@ -53100,7 +53082,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>210</v>
@@ -53214,7 +53196,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>215</v>
@@ -53326,7 +53308,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>219</v>
@@ -53438,7 +53420,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>220</v>
@@ -53552,7 +53534,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>221</v>
@@ -53668,7 +53650,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>222</v>
@@ -53780,7 +53762,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>227</v>
@@ -53894,7 +53876,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>231</v>
@@ -54006,7 +53988,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>234</v>
@@ -54118,7 +54100,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>236</v>
@@ -54230,7 +54212,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>239</v>
@@ -54342,7 +54324,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>242</v>
@@ -54454,7 +54436,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>246</v>
@@ -54566,7 +54548,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>247</v>
@@ -54680,7 +54662,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>248</v>
@@ -54796,7 +54778,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>249</v>
@@ -54908,7 +54890,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>252</v>
@@ -55020,7 +55002,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>255</v>
@@ -55134,7 +55116,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>259</v>
@@ -55248,7 +55230,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>263</v>
@@ -55362,13 +55344,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D465" t="s" s="2">
         <v>78</v>
@@ -55476,7 +55458,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>183</v>
@@ -55588,7 +55570,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>184</v>
@@ -55702,7 +55684,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>185</v>
@@ -55818,7 +55800,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>186</v>
@@ -55930,7 +55912,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>189</v>
@@ -56044,7 +56026,7 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>193</v>
@@ -56070,13 +56052,13 @@
         <v>78</v>
       </c>
       <c r="K471" t="s" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="N471" s="2"/>
       <c r="O471" s="2"/>
@@ -56145,7 +56127,7 @@
         <v>78</v>
       </c>
       <c r="AL471" t="s" s="2">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="AM471" t="s" s="2">
         <v>78</v>
@@ -56156,7 +56138,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>197</v>
@@ -56268,7 +56250,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>201</v>
@@ -56380,7 +56362,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>202</v>
@@ -56494,7 +56476,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>203</v>
@@ -56610,7 +56592,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>204</v>
@@ -56724,7 +56706,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>210</v>
@@ -56838,7 +56820,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>215</v>
@@ -56950,7 +56932,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>219</v>
@@ -57062,7 +57044,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>220</v>
@@ -57176,7 +57158,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>221</v>
@@ -57292,7 +57274,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>222</v>
@@ -57404,7 +57386,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>227</v>
@@ -57518,7 +57500,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>231</v>
@@ -57630,7 +57612,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>234</v>
@@ -57742,7 +57724,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>236</v>
@@ -57854,7 +57836,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>239</v>
@@ -57966,7 +57948,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>242</v>
@@ -58078,7 +58060,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>246</v>
@@ -58190,7 +58172,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>247</v>
@@ -58304,7 +58286,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>248</v>
@@ -58420,7 +58402,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>249</v>
@@ -58532,7 +58514,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>252</v>
@@ -58644,7 +58626,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>255</v>
@@ -58758,7 +58740,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>259</v>
@@ -58872,7 +58854,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>263</v>
@@ -58986,10 +58968,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" t="s" s="2">
@@ -59012,19 +58994,19 @@
         <v>89</v>
       </c>
       <c r="K497" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="N497" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="O497" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="P497" t="s" s="2">
         <v>78</v>
@@ -59073,7 +59055,7 @@
         <v>78</v>
       </c>
       <c r="AF497" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="AG497" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-rs-bundle-oneiss.xlsx
+++ b/StructureDefinition-rs-bundle-oneiss.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17757" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16617" uniqueCount="747">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -573,7 +573,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -853,105 +853,6 @@
   <si>
     <t>For a POST/PUT operation, this is the equivalent outcome that would be returned for prefer = operationoutcome - except that the resource is always returned whether or not the outcome is returned.
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition</t>
-  </si>
-  <si>
-    <t>composition</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.resource</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:composition.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:patient</t>
@@ -2722,7 +2623,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN497"/>
+  <dimension ref="A1:AN465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8907,7 +8808,7 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8923,16 +8824,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9001,10 +8902,10 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -9012,7 +8913,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>197</v>
@@ -9124,7 +9025,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>201</v>
@@ -9236,7 +9137,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>202</v>
@@ -9350,7 +9251,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>203</v>
@@ -9466,7 +9367,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>204</v>
@@ -9580,7 +9481,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>210</v>
@@ -9694,7 +9595,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>215</v>
@@ -9806,7 +9707,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>219</v>
@@ -9918,7 +9819,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>220</v>
@@ -10032,7 +9933,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>221</v>
@@ -10148,7 +10049,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>222</v>
@@ -10260,7 +10161,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>227</v>
@@ -10374,7 +10275,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>231</v>
@@ -10486,7 +10387,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>234</v>
@@ -10598,7 +10499,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>236</v>
@@ -10710,7 +10611,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>239</v>
@@ -10822,7 +10723,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>242</v>
@@ -10934,7 +10835,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>246</v>
@@ -11046,7 +10947,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>247</v>
@@ -11160,7 +11061,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>248</v>
@@ -11276,7 +11177,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>249</v>
@@ -11388,7 +11289,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>252</v>
@@ -11500,7 +11401,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>255</v>
@@ -11614,7 +11515,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>259</v>
@@ -11728,7 +11629,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>263</v>
@@ -11842,13 +11743,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>78</v>
@@ -11956,7 +11857,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>183</v>
@@ -12068,7 +11969,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>184</v>
@@ -12182,7 +12083,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>185</v>
@@ -12298,7 +12199,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>186</v>
@@ -12410,7 +12311,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>189</v>
@@ -12524,14 +12425,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12550,13 +12451,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12625,10 +12526,10 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12636,7 +12537,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>197</v>
@@ -12748,7 +12649,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>201</v>
@@ -12860,7 +12761,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>202</v>
@@ -12974,7 +12875,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>203</v>
@@ -13090,7 +12991,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>204</v>
@@ -13204,7 +13105,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>210</v>
@@ -13318,7 +13219,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>215</v>
@@ -13430,7 +13331,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>219</v>
@@ -13542,7 +13443,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>220</v>
@@ -13656,7 +13557,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>221</v>
@@ -13772,7 +13673,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>222</v>
@@ -13884,7 +13785,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>227</v>
@@ -13998,7 +13899,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>231</v>
@@ -14110,7 +14011,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>234</v>
@@ -14222,7 +14123,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>236</v>
@@ -14334,7 +14235,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>239</v>
@@ -14446,7 +14347,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>242</v>
@@ -14558,7 +14459,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>246</v>
@@ -14670,7 +14571,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>247</v>
@@ -14784,7 +14685,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>248</v>
@@ -14900,7 +14801,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>249</v>
@@ -15012,7 +14913,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>252</v>
@@ -15124,7 +15025,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>255</v>
@@ -15238,7 +15139,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>259</v>
@@ -15352,7 +15253,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>263</v>
@@ -15466,20 +15367,20 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>88</v>
@@ -15580,7 +15481,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>183</v>
@@ -15692,7 +15593,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>184</v>
@@ -15806,7 +15707,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>185</v>
@@ -15922,7 +15823,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>186</v>
@@ -16034,7 +15935,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>189</v>
@@ -16148,14 +16049,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16174,13 +16075,13 @@
         <v>78</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16246,10 +16147,10 @@
         <v>78</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>78</v>
@@ -16260,7 +16161,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>197</v>
@@ -16372,7 +16273,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>201</v>
@@ -16484,7 +16385,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>202</v>
@@ -16598,7 +16499,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>203</v>
@@ -16714,7 +16615,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>204</v>
@@ -16828,7 +16729,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>210</v>
@@ -16942,7 +16843,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>215</v>
@@ -17054,7 +16955,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>219</v>
@@ -17166,7 +17067,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>220</v>
@@ -17280,7 +17181,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>221</v>
@@ -17396,7 +17297,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>222</v>
@@ -17508,7 +17409,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>227</v>
@@ -17622,7 +17523,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>231</v>
@@ -17734,7 +17635,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>234</v>
@@ -17846,7 +17747,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>236</v>
@@ -17958,7 +17859,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>239</v>
@@ -18070,7 +17971,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>242</v>
@@ -18182,7 +18083,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>246</v>
@@ -18294,7 +18195,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>247</v>
@@ -18408,7 +18309,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>248</v>
@@ -18524,7 +18425,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>249</v>
@@ -18636,7 +18537,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>252</v>
@@ -18748,7 +18649,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>255</v>
@@ -18862,7 +18763,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>259</v>
@@ -18976,7 +18877,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>263</v>
@@ -19090,13 +18991,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>78</v>
@@ -19204,7 +19105,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>183</v>
@@ -19316,7 +19217,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>184</v>
@@ -19430,7 +19331,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>185</v>
@@ -19546,7 +19447,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>186</v>
@@ -19658,7 +19559,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>189</v>
@@ -19772,7 +19673,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>193</v>
@@ -19798,13 +19699,13 @@
         <v>78</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19870,10 +19771,10 @@
         <v>78</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>78</v>
@@ -19884,7 +19785,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>197</v>
@@ -19996,7 +19897,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>201</v>
@@ -20108,7 +20009,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>202</v>
@@ -20222,7 +20123,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>203</v>
@@ -20338,7 +20239,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>204</v>
@@ -20452,7 +20353,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>210</v>
@@ -20566,7 +20467,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>215</v>
@@ -20678,7 +20579,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>219</v>
@@ -20790,7 +20691,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>220</v>
@@ -20904,7 +20805,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>221</v>
@@ -21020,7 +20921,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>222</v>
@@ -21132,7 +21033,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>227</v>
@@ -21246,7 +21147,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>231</v>
@@ -21358,7 +21259,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>234</v>
@@ -21470,7 +21371,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>236</v>
@@ -21582,7 +21483,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>239</v>
@@ -21694,7 +21595,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>242</v>
@@ -21806,7 +21707,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>246</v>
@@ -21918,7 +21819,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>247</v>
@@ -22032,7 +21933,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>248</v>
@@ -22148,7 +22049,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>249</v>
@@ -22260,7 +22161,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>252</v>
@@ -22372,7 +22273,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>255</v>
@@ -22486,7 +22387,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>259</v>
@@ -22600,7 +22501,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>263</v>
@@ -22714,13 +22615,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>78</v>
@@ -22730,7 +22631,7 @@
         <v>79</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>78</v>
@@ -22828,7 +22729,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>183</v>
@@ -22940,7 +22841,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>184</v>
@@ -23054,7 +22955,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>185</v>
@@ -23170,7 +23071,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>186</v>
@@ -23282,7 +23183,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>189</v>
@@ -23396,14 +23297,14 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
@@ -23422,15 +23323,17 @@
         <v>78</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N183" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
         <v>78</v>
@@ -23494,10 +23397,10 @@
         <v>78</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>78</v>
@@ -23508,7 +23411,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>197</v>
@@ -23620,7 +23523,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>201</v>
@@ -23732,7 +23635,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>202</v>
@@ -23846,7 +23749,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>203</v>
@@ -23962,7 +23865,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>204</v>
@@ -24076,7 +23979,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>210</v>
@@ -24190,7 +24093,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>215</v>
@@ -24302,7 +24205,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>219</v>
@@ -24414,7 +24317,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>220</v>
@@ -24528,7 +24431,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>221</v>
@@ -24644,7 +24547,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>222</v>
@@ -24756,7 +24659,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>227</v>
@@ -24870,7 +24773,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>231</v>
@@ -24982,7 +24885,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>234</v>
@@ -25094,7 +24997,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>236</v>
@@ -25206,7 +25109,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>239</v>
@@ -25318,7 +25221,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>242</v>
@@ -25430,7 +25333,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>246</v>
@@ -25542,7 +25445,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>247</v>
@@ -25656,7 +25559,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>248</v>
@@ -25772,7 +25675,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>249</v>
@@ -25884,7 +25787,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>252</v>
@@ -25996,7 +25899,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>255</v>
@@ -26110,7 +26013,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>259</v>
@@ -26224,7 +26127,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>263</v>
@@ -26338,13 +26241,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>78</v>
@@ -26452,7 +26355,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>183</v>
@@ -26564,7 +26467,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>184</v>
@@ -26678,7 +26581,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>185</v>
@@ -26794,7 +26697,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>186</v>
@@ -26906,7 +26809,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>189</v>
@@ -27020,14 +26923,14 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -27046,16 +26949,16 @@
         <v>78</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -27120,10 +27023,10 @@
         <v>78</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>78</v>
@@ -27134,7 +27037,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>197</v>
@@ -27246,7 +27149,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>201</v>
@@ -27358,7 +27261,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>202</v>
@@ -27472,7 +27375,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>203</v>
@@ -27588,7 +27491,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>204</v>
@@ -27702,7 +27605,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>210</v>
@@ -27816,7 +27719,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>215</v>
@@ -27928,7 +27831,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>219</v>
@@ -28040,7 +27943,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>220</v>
@@ -28154,7 +28057,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>221</v>
@@ -28270,7 +28173,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>222</v>
@@ -28382,7 +28285,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>227</v>
@@ -28496,7 +28399,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>231</v>
@@ -28608,7 +28511,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>234</v>
@@ -28720,7 +28623,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>236</v>
@@ -28832,7 +28735,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>239</v>
@@ -28944,7 +28847,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>242</v>
@@ -29056,7 +28959,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>246</v>
@@ -29168,7 +29071,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>247</v>
@@ -29282,7 +29185,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>248</v>
@@ -29398,7 +29301,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>249</v>
@@ -29510,7 +29413,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>252</v>
@@ -29622,7 +29525,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>255</v>
@@ -29736,7 +29639,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>259</v>
@@ -29850,7 +29753,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>263</v>
@@ -29964,13 +29867,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>78</v>
@@ -30078,7 +29981,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>183</v>
@@ -30190,7 +30093,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>184</v>
@@ -30304,7 +30207,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>185</v>
@@ -30420,7 +30323,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>186</v>
@@ -30532,7 +30435,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>189</v>
@@ -30646,14 +30549,14 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -30672,16 +30575,16 @@
         <v>78</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="O247" s="2"/>
       <c r="P247" t="s" s="2">
@@ -30746,10 +30649,10 @@
         <v>78</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>78</v>
@@ -30760,7 +30663,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>197</v>
@@ -30872,7 +30775,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>201</v>
@@ -30984,7 +30887,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>202</v>
@@ -31098,7 +31001,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>203</v>
@@ -31214,7 +31117,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>204</v>
@@ -31328,7 +31231,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>210</v>
@@ -31442,7 +31345,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>215</v>
@@ -31554,7 +31457,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>219</v>
@@ -31666,7 +31569,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>220</v>
@@ -31780,7 +31683,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>221</v>
@@ -31896,7 +31799,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>222</v>
@@ -32008,7 +31911,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>227</v>
@@ -32122,7 +32025,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>231</v>
@@ -32234,7 +32137,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>234</v>
@@ -32346,7 +32249,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>236</v>
@@ -32458,7 +32361,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>239</v>
@@ -32570,7 +32473,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>242</v>
@@ -32682,7 +32585,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>246</v>
@@ -32794,7 +32697,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>247</v>
@@ -32908,7 +32811,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>248</v>
@@ -33024,7 +32927,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>249</v>
@@ -33136,7 +33039,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>252</v>
@@ -33248,7 +33151,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>255</v>
@@ -33362,7 +33265,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>259</v>
@@ -33476,7 +33379,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>263</v>
@@ -33590,13 +33493,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>78</v>
@@ -33704,7 +33607,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>183</v>
@@ -33816,7 +33719,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>184</v>
@@ -33930,7 +33833,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>185</v>
@@ -34046,7 +33949,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>186</v>
@@ -34158,7 +34061,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>189</v>
@@ -34272,14 +34175,14 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
@@ -34298,16 +34201,16 @@
         <v>78</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="O279" s="2"/>
       <c r="P279" t="s" s="2">
@@ -34372,10 +34275,10 @@
         <v>78</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>78</v>
@@ -34386,7 +34289,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>197</v>
@@ -34498,7 +34401,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>201</v>
@@ -34610,7 +34513,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>202</v>
@@ -34724,7 +34627,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>203</v>
@@ -34840,7 +34743,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>204</v>
@@ -34954,7 +34857,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>210</v>
@@ -35068,7 +34971,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>215</v>
@@ -35180,7 +35083,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>219</v>
@@ -35292,7 +35195,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>220</v>
@@ -35406,7 +35309,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>221</v>
@@ -35522,7 +35425,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>222</v>
@@ -35634,7 +35537,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>227</v>
@@ -35748,7 +35651,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>231</v>
@@ -35860,7 +35763,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>234</v>
@@ -35972,7 +35875,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>236</v>
@@ -36084,7 +35987,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>239</v>
@@ -36196,7 +36099,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>242</v>
@@ -36308,7 +36211,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>246</v>
@@ -36420,7 +36323,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>247</v>
@@ -36534,7 +36437,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>248</v>
@@ -36650,7 +36553,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>249</v>
@@ -36762,7 +36665,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>252</v>
@@ -36874,7 +36777,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>255</v>
@@ -36988,7 +36891,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>259</v>
@@ -37102,7 +37005,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>263</v>
@@ -37216,13 +37119,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D305" t="s" s="2">
         <v>78</v>
@@ -37232,7 +37135,7 @@
         <v>79</v>
       </c>
       <c r="G305" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H305" t="s" s="2">
         <v>78</v>
@@ -37330,7 +37233,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>183</v>
@@ -37442,7 +37345,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>184</v>
@@ -37556,7 +37459,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>185</v>
@@ -37672,7 +37575,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>186</v>
@@ -37698,7 +37601,7 @@
         <v>89</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L309" t="s" s="2">
         <v>187</v>
@@ -37784,7 +37687,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>189</v>
@@ -37898,14 +37801,14 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
@@ -37924,16 +37827,16 @@
         <v>78</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
@@ -37998,10 +37901,10 @@
         <v>78</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>78</v>
@@ -38012,7 +37915,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>197</v>
@@ -38124,7 +38027,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>201</v>
@@ -38236,7 +38139,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>202</v>
@@ -38350,7 +38253,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>203</v>
@@ -38466,7 +38369,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>204</v>
@@ -38580,7 +38483,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>210</v>
@@ -38694,7 +38597,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>215</v>
@@ -38806,7 +38709,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>219</v>
@@ -38918,7 +38821,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>220</v>
@@ -39032,7 +38935,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>221</v>
@@ -39148,7 +39051,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>222</v>
@@ -39260,7 +39163,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>227</v>
@@ -39374,7 +39277,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>231</v>
@@ -39486,7 +39389,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>234</v>
@@ -39598,7 +39501,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>236</v>
@@ -39710,7 +39613,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>239</v>
@@ -39822,7 +39725,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>242</v>
@@ -39934,7 +39837,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>246</v>
@@ -40046,7 +39949,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>247</v>
@@ -40160,7 +40063,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>248</v>
@@ -40276,7 +40179,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>249</v>
@@ -40388,7 +40291,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>252</v>
@@ -40500,7 +40403,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>255</v>
@@ -40614,7 +40517,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>259</v>
@@ -40728,7 +40631,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>263</v>
@@ -40842,13 +40745,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D337" t="s" s="2">
         <v>78</v>
@@ -40956,7 +40859,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>183</v>
@@ -41068,7 +40971,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>184</v>
@@ -41182,7 +41085,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>185</v>
@@ -41298,7 +41201,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>186</v>
@@ -41410,7 +41313,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>189</v>
@@ -41524,14 +41427,14 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
@@ -41550,16 +41453,16 @@
         <v>78</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
@@ -41624,10 +41527,10 @@
         <v>78</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="AL343" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>78</v>
@@ -41638,7 +41541,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>197</v>
@@ -41750,7 +41653,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>201</v>
@@ -41862,7 +41765,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>202</v>
@@ -41976,7 +41879,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>203</v>
@@ -42092,7 +41995,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>204</v>
@@ -42206,7 +42109,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>210</v>
@@ -42320,7 +42223,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>215</v>
@@ -42432,7 +42335,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>219</v>
@@ -42544,7 +42447,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>220</v>
@@ -42658,7 +42561,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>221</v>
@@ -42774,7 +42677,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>222</v>
@@ -42886,7 +42789,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>227</v>
@@ -43000,7 +42903,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>231</v>
@@ -43112,7 +43015,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>234</v>
@@ -43224,7 +43127,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>236</v>
@@ -43336,7 +43239,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>239</v>
@@ -43448,7 +43351,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>242</v>
@@ -43560,7 +43463,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>246</v>
@@ -43672,7 +43575,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>247</v>
@@ -43786,7 +43689,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>248</v>
@@ -43902,7 +43805,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>249</v>
@@ -44014,7 +43917,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>252</v>
@@ -44126,7 +44029,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>255</v>
@@ -44240,7 +44143,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>259</v>
@@ -44354,7 +44257,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>263</v>
@@ -44468,13 +44371,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>78</v>
@@ -44484,7 +44387,7 @@
         <v>79</v>
       </c>
       <c r="G369" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H369" t="s" s="2">
         <v>78</v>
@@ -44582,7 +44485,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>183</v>
@@ -44694,7 +44597,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>184</v>
@@ -44808,7 +44711,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>185</v>
@@ -44924,7 +44827,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>186</v>
@@ -45036,7 +44939,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>189</v>
@@ -45150,14 +45053,14 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
@@ -45176,16 +45079,16 @@
         <v>78</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>459</v>
+        <v>635</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>460</v>
+        <v>636</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>461</v>
+        <v>637</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
@@ -45250,13 +45153,13 @@
         <v>78</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="AL375" t="s" s="2">
-        <v>463</v>
+        <v>638</v>
       </c>
       <c r="AM375" t="s" s="2">
-        <v>78</v>
+        <v>639</v>
       </c>
       <c r="AN375" t="s" s="2">
         <v>78</v>
@@ -45264,7 +45167,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>197</v>
@@ -45376,7 +45279,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>201</v>
@@ -45488,7 +45391,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>202</v>
@@ -45602,7 +45505,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>203</v>
@@ -45718,7 +45621,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>204</v>
@@ -45832,7 +45735,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>210</v>
@@ -45946,7 +45849,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>215</v>
@@ -46058,7 +45961,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>219</v>
@@ -46170,7 +46073,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>220</v>
@@ -46284,7 +46187,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>221</v>
@@ -46400,7 +46303,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>222</v>
@@ -46512,7 +46415,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>227</v>
@@ -46626,7 +46529,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>231</v>
@@ -46738,7 +46641,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>234</v>
@@ -46850,7 +46753,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>236</v>
@@ -46962,7 +46865,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>239</v>
@@ -47074,7 +46977,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>242</v>
@@ -47186,7 +47089,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>246</v>
@@ -47298,7 +47201,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>247</v>
@@ -47412,7 +47315,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>248</v>
@@ -47528,7 +47431,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>249</v>
@@ -47640,7 +47543,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>252</v>
@@ -47752,7 +47655,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>255</v>
@@ -47866,7 +47769,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>259</v>
@@ -47980,7 +47883,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>263</v>
@@ -48094,13 +47997,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>78</v>
@@ -48208,7 +48111,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>183</v>
@@ -48320,7 +48223,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>184</v>
@@ -48434,7 +48337,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>185</v>
@@ -48550,7 +48453,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>186</v>
@@ -48662,7 +48565,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>189</v>
@@ -48776,14 +48679,14 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
-        <v>78</v>
+        <v>673</v>
       </c>
       <c r="E407" s="2"/>
       <c r="F407" t="s" s="2">
@@ -48802,17 +48705,15 @@
         <v>78</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N407" t="s" s="2">
-        <v>670</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="N407" s="2"/>
       <c r="O407" s="2"/>
       <c r="P407" t="s" s="2">
         <v>78</v>
@@ -48876,13 +48777,13 @@
         <v>78</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>78</v>
+        <v>677</v>
       </c>
       <c r="AL407" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="AM407" t="s" s="2">
-        <v>672</v>
+        <v>78</v>
       </c>
       <c r="AN407" t="s" s="2">
         <v>78</v>
@@ -48890,7 +48791,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>197</v>
@@ -49002,7 +48903,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>201</v>
@@ -49114,7 +49015,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>202</v>
@@ -49228,7 +49129,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>203</v>
@@ -49344,7 +49245,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>204</v>
@@ -49458,7 +49359,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>210</v>
@@ -49572,7 +49473,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>215</v>
@@ -49684,7 +49585,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>219</v>
@@ -49796,7 +49697,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>220</v>
@@ -49910,7 +49811,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>221</v>
@@ -50026,7 +49927,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>222</v>
@@ -50138,7 +50039,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>227</v>
@@ -50252,7 +50153,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>231</v>
@@ -50364,7 +50265,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>234</v>
@@ -50476,7 +50377,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>236</v>
@@ -50588,7 +50489,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>239</v>
@@ -50700,7 +50601,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>242</v>
@@ -50812,7 +50713,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>246</v>
@@ -50924,7 +50825,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>247</v>
@@ -51038,7 +50939,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>248</v>
@@ -51154,7 +51055,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>249</v>
@@ -51266,7 +51167,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>252</v>
@@ -51378,7 +51279,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>255</v>
@@ -51492,7 +51393,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>259</v>
@@ -51606,7 +51507,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>263</v>
@@ -51720,13 +51621,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="D433" t="s" s="2">
         <v>78</v>
@@ -51834,7 +51735,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>183</v>
@@ -51946,7 +51847,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>184</v>
@@ -52060,7 +51961,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>185</v>
@@ -52176,7 +52077,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>186</v>
@@ -52288,7 +52189,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>189</v>
@@ -52402,14 +52303,14 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" t="s" s="2">
-        <v>706</v>
+        <v>78</v>
       </c>
       <c r="E439" s="2"/>
       <c r="F439" t="s" s="2">
@@ -52428,13 +52329,13 @@
         <v>78</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="N439" s="2"/>
       <c r="O439" s="2"/>
@@ -52500,10 +52401,10 @@
         <v>78</v>
       </c>
       <c r="AK439" t="s" s="2">
-        <v>710</v>
+        <v>78</v>
       </c>
       <c r="AL439" t="s" s="2">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="AM439" t="s" s="2">
         <v>78</v>
@@ -52514,7 +52415,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>197</v>
@@ -52626,7 +52527,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>201</v>
@@ -52738,7 +52639,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>202</v>
@@ -52852,7 +52753,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>203</v>
@@ -52968,7 +52869,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>204</v>
@@ -53082,7 +52983,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>210</v>
@@ -53196,7 +53097,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>215</v>
@@ -53308,7 +53209,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>219</v>
@@ -53420,7 +53321,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>220</v>
@@ -53534,7 +53435,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>221</v>
@@ -53650,7 +53551,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>222</v>
@@ -53762,7 +53663,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>227</v>
@@ -53876,7 +53777,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>231</v>
@@ -53988,7 +53889,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>234</v>
@@ -54100,7 +54001,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>236</v>
@@ -54212,7 +54113,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>239</v>
@@ -54324,7 +54225,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>242</v>
@@ -54436,7 +54337,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>246</v>
@@ -54548,7 +54449,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>247</v>
@@ -54662,7 +54563,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>248</v>
@@ -54778,7 +54679,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>249</v>
@@ -54890,7 +54791,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>252</v>
@@ -55002,7 +54903,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>255</v>
@@ -55116,7 +55017,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>259</v>
@@ -55230,7 +55131,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>263</v>
@@ -55344,14 +55245,12 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C465" t="s" s="2">
-        <v>738</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="C465" s="2"/>
       <c r="D465" t="s" s="2">
         <v>78</v>
       </c>
@@ -55360,7 +55259,7 @@
         <v>79</v>
       </c>
       <c r="G465" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H465" t="s" s="2">
         <v>78</v>
@@ -55372,16 +55271,20 @@
         <v>89</v>
       </c>
       <c r="K465" t="s" s="2">
-        <v>146</v>
+        <v>742</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>178</v>
+        <v>743</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N465" s="2"/>
-      <c r="O465" s="2"/>
+        <v>744</v>
+      </c>
+      <c r="N465" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="O465" t="s" s="2">
+        <v>746</v>
+      </c>
       <c r="P465" t="s" s="2">
         <v>78</v>
       </c>
@@ -55429,19 +55332,19 @@
         <v>78</v>
       </c>
       <c r="AF465" t="s" s="2">
-        <v>176</v>
+        <v>741</v>
       </c>
       <c r="AG465" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH465" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI465" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ465" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="AK465" t="s" s="2">
         <v>78</v>
@@ -55453,3632 +55356,6 @@
         <v>78</v>
       </c>
       <c r="AN465" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="B466" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C466" s="2"/>
-      <c r="D466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E466" s="2"/>
-      <c r="F466" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G466" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K466" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L466" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M466" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N466" s="2"/>
-      <c r="O466" s="2"/>
-      <c r="P466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q466" s="2"/>
-      <c r="R466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF466" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG466" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH466" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL466" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN466" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="B467" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C467" s="2"/>
-      <c r="D467" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E467" s="2"/>
-      <c r="F467" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G467" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K467" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L467" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M467" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N467" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O467" s="2"/>
-      <c r="P467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q467" s="2"/>
-      <c r="R467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF467" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG467" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH467" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ467" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL467" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM467" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN467" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="B468" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C468" s="2"/>
-      <c r="D468" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E468" s="2"/>
-      <c r="F468" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G468" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I468" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J468" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K468" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L468" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M468" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N468" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O468" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q468" s="2"/>
-      <c r="R468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF468" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG468" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH468" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ468" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL468" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM468" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN468" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="B469" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C469" s="2"/>
-      <c r="D469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E469" s="2"/>
-      <c r="F469" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G469" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J469" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L469" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M469" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N469" s="2"/>
-      <c r="O469" s="2"/>
-      <c r="P469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q469" s="2"/>
-      <c r="R469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF469" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG469" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH469" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ469" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM469" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN469" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="B470" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C470" s="2"/>
-      <c r="D470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E470" s="2"/>
-      <c r="F470" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G470" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J470" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K470" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L470" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M470" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N470" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O470" s="2"/>
-      <c r="P470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q470" s="2"/>
-      <c r="R470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF470" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AG470" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH470" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ470" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM470" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN470" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="B471" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C471" s="2"/>
-      <c r="D471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E471" s="2"/>
-      <c r="F471" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G471" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K471" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="L471" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="M471" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="N471" s="2"/>
-      <c r="O471" s="2"/>
-      <c r="P471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q471" s="2"/>
-      <c r="R471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF471" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG471" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH471" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL471" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="AM471" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN471" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="B472" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C472" s="2"/>
-      <c r="D472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E472" s="2"/>
-      <c r="F472" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G472" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J472" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K472" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L472" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M472" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N472" s="2"/>
-      <c r="O472" s="2"/>
-      <c r="P472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q472" s="2"/>
-      <c r="R472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF472" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AG472" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH472" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI472" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AJ472" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM472" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN472" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="B473" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C473" s="2"/>
-      <c r="D473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E473" s="2"/>
-      <c r="F473" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G473" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K473" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L473" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M473" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N473" s="2"/>
-      <c r="O473" s="2"/>
-      <c r="P473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q473" s="2"/>
-      <c r="R473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF473" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG473" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH473" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL473" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM473" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN473" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="B474" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C474" s="2"/>
-      <c r="D474" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E474" s="2"/>
-      <c r="F474" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G474" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K474" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L474" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M474" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N474" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O474" s="2"/>
-      <c r="P474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q474" s="2"/>
-      <c r="R474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF474" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG474" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH474" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ474" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL474" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM474" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN474" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="B475" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C475" s="2"/>
-      <c r="D475" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E475" s="2"/>
-      <c r="F475" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G475" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I475" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J475" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K475" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L475" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M475" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N475" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O475" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q475" s="2"/>
-      <c r="R475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF475" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG475" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH475" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ475" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL475" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM475" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN475" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="B476" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C476" s="2"/>
-      <c r="D476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E476" s="2"/>
-      <c r="F476" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G476" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J476" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K476" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L476" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M476" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N476" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O476" s="2"/>
-      <c r="P476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q476" s="2"/>
-      <c r="R476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X476" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="Y476" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z476" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF476" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG476" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH476" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ476" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM476" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN476" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="B477" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C477" s="2"/>
-      <c r="D477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E477" s="2"/>
-      <c r="F477" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G477" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J477" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K477" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="L477" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M477" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N477" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O477" s="2"/>
-      <c r="P477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q477" s="2"/>
-      <c r="R477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF477" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG477" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH477" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ477" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM477" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN477" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="B478" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C478" s="2"/>
-      <c r="D478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E478" s="2"/>
-      <c r="F478" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G478" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J478" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K478" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L478" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M478" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N478" s="2"/>
-      <c r="O478" s="2"/>
-      <c r="P478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q478" s="2"/>
-      <c r="R478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF478" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AG478" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH478" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI478" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AJ478" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM478" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN478" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="B479" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C479" s="2"/>
-      <c r="D479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E479" s="2"/>
-      <c r="F479" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G479" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K479" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L479" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M479" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N479" s="2"/>
-      <c r="O479" s="2"/>
-      <c r="P479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q479" s="2"/>
-      <c r="R479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF479" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG479" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH479" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL479" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN479" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="B480" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C480" s="2"/>
-      <c r="D480" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E480" s="2"/>
-      <c r="F480" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G480" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K480" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L480" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M480" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N480" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O480" s="2"/>
-      <c r="P480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q480" s="2"/>
-      <c r="R480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF480" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG480" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH480" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ480" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL480" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN480" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="B481" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C481" s="2"/>
-      <c r="D481" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E481" s="2"/>
-      <c r="F481" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G481" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I481" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J481" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K481" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L481" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M481" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N481" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O481" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q481" s="2"/>
-      <c r="R481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF481" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG481" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH481" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ481" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL481" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM481" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN481" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="B482" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C482" s="2"/>
-      <c r="D482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E482" s="2"/>
-      <c r="F482" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G482" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J482" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K482" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L482" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M482" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N482" s="2"/>
-      <c r="O482" s="2"/>
-      <c r="P482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q482" s="2"/>
-      <c r="R482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X482" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="Y482" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Z482" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AA482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF482" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG482" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH482" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ482" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM482" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN482" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="B483" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C483" s="2"/>
-      <c r="D483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E483" s="2"/>
-      <c r="F483" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G483" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J483" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K483" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L483" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M483" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N483" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O483" s="2"/>
-      <c r="P483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q483" s="2"/>
-      <c r="R483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF483" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG483" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH483" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ483" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM483" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN483" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="B484" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C484" s="2"/>
-      <c r="D484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E484" s="2"/>
-      <c r="F484" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G484" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J484" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K484" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L484" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M484" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N484" s="2"/>
-      <c r="O484" s="2"/>
-      <c r="P484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q484" s="2"/>
-      <c r="R484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF484" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG484" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH484" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ484" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM484" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN484" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="B485" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C485" s="2"/>
-      <c r="D485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E485" s="2"/>
-      <c r="F485" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G485" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J485" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K485" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L485" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M485" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N485" s="2"/>
-      <c r="O485" s="2"/>
-      <c r="P485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q485" s="2"/>
-      <c r="R485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF485" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG485" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH485" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ485" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM485" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN485" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="B486" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C486" s="2"/>
-      <c r="D486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E486" s="2"/>
-      <c r="F486" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G486" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J486" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K486" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L486" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M486" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N486" s="2"/>
-      <c r="O486" s="2"/>
-      <c r="P486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q486" s="2"/>
-      <c r="R486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF486" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG486" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH486" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ486" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM486" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN486" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="B487" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C487" s="2"/>
-      <c r="D487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E487" s="2"/>
-      <c r="F487" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G487" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J487" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K487" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L487" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M487" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N487" s="2"/>
-      <c r="O487" s="2"/>
-      <c r="P487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q487" s="2"/>
-      <c r="R487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF487" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AG487" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH487" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ487" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM487" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN487" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="B488" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C488" s="2"/>
-      <c r="D488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E488" s="2"/>
-      <c r="F488" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G488" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J488" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K488" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L488" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M488" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N488" s="2"/>
-      <c r="O488" s="2"/>
-      <c r="P488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q488" s="2"/>
-      <c r="R488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF488" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AG488" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH488" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI488" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AJ488" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN488" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="B489" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C489" s="2"/>
-      <c r="D489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E489" s="2"/>
-      <c r="F489" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G489" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K489" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L489" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M489" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N489" s="2"/>
-      <c r="O489" s="2"/>
-      <c r="P489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q489" s="2"/>
-      <c r="R489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF489" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG489" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH489" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL489" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN489" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="B490" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C490" s="2"/>
-      <c r="D490" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E490" s="2"/>
-      <c r="F490" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G490" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K490" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L490" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M490" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N490" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O490" s="2"/>
-      <c r="P490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q490" s="2"/>
-      <c r="R490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF490" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG490" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH490" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ490" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL490" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AM490" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN490" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="B491" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C491" s="2"/>
-      <c r="D491" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E491" s="2"/>
-      <c r="F491" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G491" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I491" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J491" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K491" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L491" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M491" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N491" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O491" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q491" s="2"/>
-      <c r="R491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF491" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG491" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH491" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ491" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL491" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM491" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN491" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="B492" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C492" s="2"/>
-      <c r="D492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E492" s="2"/>
-      <c r="F492" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G492" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J492" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K492" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L492" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M492" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N492" s="2"/>
-      <c r="O492" s="2"/>
-      <c r="P492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q492" s="2"/>
-      <c r="R492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF492" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG492" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH492" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ492" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM492" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN492" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="B493" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C493" s="2"/>
-      <c r="D493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E493" s="2"/>
-      <c r="F493" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G493" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J493" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K493" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L493" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M493" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N493" s="2"/>
-      <c r="O493" s="2"/>
-      <c r="P493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q493" s="2"/>
-      <c r="R493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF493" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AG493" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH493" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ493" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM493" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN493" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="B494" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C494" s="2"/>
-      <c r="D494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E494" s="2"/>
-      <c r="F494" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G494" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J494" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K494" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L494" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M494" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N494" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O494" s="2"/>
-      <c r="P494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q494" s="2"/>
-      <c r="R494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF494" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AG494" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH494" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ494" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM494" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN494" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="B495" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C495" s="2"/>
-      <c r="D495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E495" s="2"/>
-      <c r="F495" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G495" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J495" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K495" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L495" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M495" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N495" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O495" s="2"/>
-      <c r="P495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q495" s="2"/>
-      <c r="R495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF495" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AG495" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH495" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ495" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM495" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN495" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="B496" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C496" s="2"/>
-      <c r="D496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E496" s="2"/>
-      <c r="F496" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G496" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J496" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K496" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L496" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M496" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N496" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O496" s="2"/>
-      <c r="P496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q496" s="2"/>
-      <c r="R496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF496" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AG496" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH496" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM496" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN496" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="B497" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="C497" s="2"/>
-      <c r="D497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E497" s="2"/>
-      <c r="F497" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G497" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J497" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K497" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="L497" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="M497" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N497" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O497" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="P497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q497" s="2"/>
-      <c r="R497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF497" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="AG497" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH497" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ497" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM497" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN497" t="s" s="2">
         <v>78</v>
       </c>
     </row>
